--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_critical_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_critical_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015427046681749</v>
+        <v>2.015427046620155</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000015352</v>
+        <v>2.299999999949777</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740246987333657</v>
+        <v>2.740246984659815</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823415941235</v>
+        <v>92.55823416510799</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08749261395653</v>
+        <v>79.08749261569278</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455380136385842</v>
+        <v>0.1455380136724055</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23303062759511</v>
+        <v>-78.23303062936519</v>
       </c>
       <c r="I2" t="n">
-        <v>136184.1925565554</v>
+        <v>136184.1924266611</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70263832609427</v>
+        <v>83.70263824625758</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35331184610822</v>
+        <v>-24.3533119897664</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2439391354384</v>
+        <v>135.2439391511529</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372086.6508570834</v>
+        <v>372086.6508559924</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7159934128347343</v>
+        <v>0.715993412485413</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.06952311568814</v>
+        <v>2.069523116839784</v>
       </c>
       <c r="C3" t="n">
-        <v>2.39999999975648</v>
+        <v>2.399999998096183</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742649141238757</v>
+        <v>2.742649151273458</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53013773410484</v>
+        <v>92.53013760452498</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20472731943518</v>
+        <v>78.20472732842005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548188597301697</v>
+        <v>0.1548188584494702</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35954617916535</v>
+        <v>-77.35954618686952</v>
       </c>
       <c r="I3" t="n">
-        <v>140842.5889070126</v>
+        <v>140842.5894385034</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56581985679941</v>
+        <v>86.56582018346859</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84261417516259</v>
+        <v>-26.84261333320207</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5910608762149</v>
+        <v>142.5910602864408</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370431.6762687009</v>
+        <v>370431.676262801</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036644339551851</v>
+        <v>0.7036644352424555</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63109384161402</v>
+        <v>80.63109375639901</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63109384161402</v>
+        <v>80.63109375639901</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63109384161402</v>
+        <v>80.63109375639901</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63109384161402</v>
+        <v>80.63109375639901</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.35882216213</v>
+        <v>292.3588221688812</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.5732753715</v>
+        <v>132782.573286089</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583021137439658</v>
+        <v>1.5830211375308</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.5275851647</v>
+        <v>334654.5275899944</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.7444414418</v>
+        <v>418533.7444482124</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687435.5156741511</v>
+        <v>-687435.5156929203</v>
       </c>
       <c r="R2" t="n">
-        <v>717.713197094015</v>
+        <v>717.7131970943208</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647996702771</v>
+        <v>1006.647996703126</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576963581886</v>
+        <v>1.402576963581782</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980090679251</v>
+        <v>0.9994980090679723</v>
       </c>
       <c r="V2" t="n">
-        <v>342.911953286834</v>
+        <v>342.9119532907969</v>
       </c>
       <c r="W2" t="n">
-        <v>186145.2515222679</v>
+        <v>186145.2515372877</v>
       </c>
       <c r="X2" t="n">
-        <v>5.37214885591843e-06</v>
+        <v>5.37214885548496e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.6040478038</v>
+        <v>132716.6040585222</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534852230243969e-06</v>
+        <v>7.53485222963544e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433385359212766</v>
+        <v>0.003433385359133609</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817172138276355e-05</v>
+        <v>1.817172138309387e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582478594394155</v>
+        <v>0.02582478594445036</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.5732753715</v>
+        <v>132782.573286089</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583021137439658</v>
+        <v>1.5830211375308</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583021137439658</v>
+        <v>1.5830211375308</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.5275851647</v>
+        <v>334654.5275899944</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.7444414418</v>
+        <v>418533.7444482124</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.713197094015</v>
+        <v>717.7131970943208</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647996702771</v>
+        <v>1006.647996703126</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.911953286834</v>
+        <v>342.9119532907969</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980090679251</v>
+        <v>0.9994980090679723</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817172138276355e-05</v>
+        <v>1.817172138309387e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582478594394155</v>
+        <v>0.02582478594445036</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351364339118529</v>
+        <v>0.2351364336606314</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351364339118529</v>
+        <v>0.2351364336606314</v>
       </c>
       <c r="DH2" t="n">
-        <v>183751.5180234414</v>
+        <v>183751.5178364827</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.74024698737637</v>
+        <v>2.740246984638108</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.7000948872861</v>
+        <v>268.7000945151502</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.6125396683756</v>
+        <v>110.612539445345</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8767180859556</v>
+        <v>244.8767177783602</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69097053155019</v>
+        <v>65.69097054789071</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.7000948872861</v>
+        <v>268.7000945151502</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6125396683756</v>
+        <v>110.612539445345</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8767180859556</v>
+        <v>244.8767177783602</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69097053155019</v>
+        <v>65.69097054789071</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5768825430813</v>
+        <v>259.5768826429083</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.81095718697</v>
+        <v>85923.81107623315</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153944446724439</v>
+        <v>1.15394444787896</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.6008803921</v>
+        <v>311223.6009517121</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5605921775</v>
+        <v>385684.5606921639</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609748096774</v>
+        <v>3788.609748084531</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597750.9469911115</v>
+        <v>-597750.9472661529</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5374573909389</v>
+        <v>716.5374573936326</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204882829461</v>
+        <v>1005.204882832915</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864389657478</v>
+        <v>1.402864389657025</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241596289776</v>
+        <v>0.9993241596293868</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0917881093333</v>
+        <v>323.0917881715412</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.3031772219</v>
+        <v>120458.3033441263</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301627813308724e-06</v>
+        <v>8.301627801806169e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85865.96399858217</v>
+        <v>85865.96411758385</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164605803548088e-05</v>
+        <v>1.164605801934061e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865875014556579</v>
+        <v>0.003865875013073355</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652911398828524e-05</v>
+        <v>1.652911399340862e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330775431853418</v>
+        <v>0.02330775432634318</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.81095718697</v>
+        <v>85923.81107623315</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153944446724439</v>
+        <v>1.15394444787896</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153944446724439</v>
+        <v>1.15394444787896</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.6008803921</v>
+        <v>311223.6009517121</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5605921775</v>
+        <v>385684.5606921639</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609748096774</v>
+        <v>3788.609748084531</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5374573909389</v>
+        <v>716.5374573936326</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204882829461</v>
+        <v>1005.204882832915</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0917881093333</v>
+        <v>323.0917881715412</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241596289776</v>
+        <v>0.9993241596293868</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652911398828524e-05</v>
+        <v>1.652911399340862e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330775431853418</v>
+        <v>0.02330775432634318</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937144862175</v>
+        <v>295.5937144862228</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135289.0393135375</v>
+        <v>135289.0393159058</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595200320483502</v>
+        <v>1.595200320511411</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683167544</v>
+        <v>336974.3683167533</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883887</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609748094755</v>
+        <v>3788.609748089731</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.7970896323</v>
+        <v>-698104.7970881676</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561751867368</v>
+        <v>717.856175186743</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073038376</v>
+        <v>1006.777073038414</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477415168131</v>
+        <v>1.402477415168173</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899915521</v>
+        <v>0.999530289991544</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.802774923313</v>
+        <v>344.8027749233185</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.6968764001</v>
+        <v>189651.6968797242</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272823900182241e-06</v>
+        <v>5.272823900089822e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2038769903</v>
+        <v>135226.2038793564</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395016434164332e-06</v>
+        <v>7.395016434034938e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619870062544</v>
+        <v>0.003395619870062702</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925574426283e-05</v>
+        <v>1.832925574426343e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729613575431</v>
+        <v>0.02606729613575548</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0393135375</v>
+        <v>135289.0393159058</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595200320483502</v>
+        <v>1.595200320511411</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200320483502</v>
+        <v>1.595200320511411</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683167544</v>
+        <v>336974.3683167533</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883887</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609748094755</v>
+        <v>3788.609748089731</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561751867368</v>
+        <v>717.856175186743</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073038376</v>
+        <v>1006.777073038414</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.802774923313</v>
+        <v>344.8027749233185</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899915521</v>
+        <v>0.999530289991544</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925574426283e-05</v>
+        <v>1.832925574426343e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729613575431</v>
+        <v>0.02606729613575548</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937144862175</v>
+        <v>295.5937144862228</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135289.0393135375</v>
+        <v>135289.0393159058</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200320483502</v>
+        <v>1.595200320511411</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683167544</v>
+        <v>336974.3683167533</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883887</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609748094755</v>
+        <v>3788.609748089731</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.7970896323</v>
+        <v>-698104.7970881676</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561751867368</v>
+        <v>717.856175186743</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073038376</v>
+        <v>1006.777073038414</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477415168131</v>
+        <v>1.402477415168173</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899915521</v>
+        <v>0.999530289991544</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.802774923313</v>
+        <v>344.8027749233185</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.6968764001</v>
+        <v>189651.6968797242</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272823900182241e-06</v>
+        <v>5.272823900089822e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2038769903</v>
+        <v>135226.2038793564</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395016434164332e-06</v>
+        <v>7.395016434034938e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619870062544</v>
+        <v>0.003395619870062702</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925574426283e-05</v>
+        <v>1.832925574426343e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729613575431</v>
+        <v>0.02606729613575548</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0393135375</v>
+        <v>135289.0393159058</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595200320483502</v>
+        <v>1.595200320511411</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200320483502</v>
+        <v>1.595200320511411</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683167544</v>
+        <v>336974.3683167533</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310883887</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609748094755</v>
+        <v>3788.609748089731</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561751867368</v>
+        <v>717.856175186743</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073038376</v>
+        <v>1006.777073038414</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.802774923313</v>
+        <v>344.8027749233185</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899915521</v>
+        <v>0.999530289991544</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925574426283e-05</v>
+        <v>1.832925574426343e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729613575431</v>
+        <v>0.02606729613575548</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8316525048800025</v>
+        <v>0.8316525035680807</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316525048800025</v>
+        <v>0.8316525035680807</v>
       </c>
       <c r="HY2" t="n">
-        <v>490728.0537534459</v>
+        <v>490728.0534126793</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740246987424739</v>
+        <v>2.740246984641135</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593440613484796</v>
+        <v>0.01593440615006081</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.788006365303468e-07</v>
+        <v>-1.788006369548784e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379068410719914</v>
+        <v>0.01379068410771346</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519148974810759</v>
+        <v>0.02519148974143534</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491640118951817</v>
+        <v>0.05491640119857266</v>
       </c>
       <c r="IH2" t="n">
-        <v>-2.157294481941463e-11</v>
+        <v>2.927172393363264e-13</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.7000948872861</v>
+        <v>268.7000945151502</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.6125396683756</v>
+        <v>110.612539445345</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.8767180859556</v>
+        <v>244.8767177783602</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.69097053155019</v>
+        <v>65.69097054789071</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.2610682200307</v>
+        <v>136.2610678593523</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6125396683756</v>
+        <v>110.612539445345</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.57351808595561</v>
+        <v>79.57351777836016</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.73085009527958</v>
+        <v>35.73085004505197</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5768825431747</v>
+        <v>259.5768826428077</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.81095945563</v>
+        <v>85923.811076117</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.15394444675451</v>
+        <v>1.153944447877848</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.6008804535</v>
+        <v>311223.6009516401</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5605922646</v>
+        <v>385684.5606920631</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.609748089536</v>
+        <v>3788.60974808453</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597750.9469894998</v>
+        <v>-597750.9472658721</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5374573909489</v>
+        <v>716.5374573936301</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204882829512</v>
+        <v>1005.204882832912</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.40286438965753</v>
+        <v>1.402864389657025</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241596289612</v>
+        <v>0.9993241596293864</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0917881093922</v>
+        <v>323.0917881714785</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.3031804049</v>
+        <v>120458.3033439634</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.301627813089361e-06</v>
+        <v>8.301627801817393e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85865.96400084787</v>
+        <v>85865.96411746774</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164605803517358e-05</v>
+        <v>1.164605801935635e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865875014555529</v>
+        <v>0.003865875013074851</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911398829037e-05</v>
+        <v>1.652911399340346e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775431854228</v>
+        <v>0.02330775432633531</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.81095945563</v>
+        <v>85923.811076117</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.15394444675451</v>
+        <v>1.153944447877848</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.15394444675451</v>
+        <v>1.153944447877848</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.6008804535</v>
+        <v>311223.6009516401</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5605922646</v>
+        <v>385684.5606920631</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609748089536</v>
+        <v>3788.60974808453</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5374573909489</v>
+        <v>716.5374573936301</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204882829512</v>
+        <v>1005.204882832912</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0917881093922</v>
+        <v>323.0917881714785</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241596289612</v>
+        <v>0.9993241596293864</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911398829037e-05</v>
+        <v>1.652911399340346e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330775431854228</v>
+        <v>0.02330775432633531</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937144863098</v>
+        <v>295.5937144863229</v>
       </c>
       <c r="KA2" t="n">
-        <v>135289.0393103018</v>
+        <v>135289.0393160663</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595200320444833</v>
+        <v>1.595200320512763</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683168274</v>
+        <v>336974.368316825</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.609748101956</v>
+        <v>3788.60974808973</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.79709201</v>
+        <v>-698104.797088446</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561751867326</v>
+        <v>717.8561751867477</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777073038325</v>
+        <v>1006.77707303842</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415168069</v>
+        <v>1.402477415168172</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899915643</v>
+        <v>0.9995302899915447</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027749233633</v>
+        <v>344.8027749233769</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.696871858</v>
+        <v>189651.696879949</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823900308523e-06</v>
+        <v>5.27282390008357e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.2038737577</v>
+        <v>135226.203879517</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.39501643434111e-06</v>
+        <v>7.395016434026161e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619870061172</v>
+        <v>0.003395619870061555</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925574426684e-05</v>
+        <v>1.832925574426831e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729613576017</v>
+        <v>0.026067296135763</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.0393103018</v>
+        <v>135289.0393160663</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200320444833</v>
+        <v>1.595200320512763</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595200320444833</v>
+        <v>1.595200320512763</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683168274</v>
+        <v>336974.368316825</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.609748101956</v>
+        <v>3788.60974808973</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561751867326</v>
+        <v>717.8561751867477</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777073038325</v>
+        <v>1006.77707303842</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027749233633</v>
+        <v>344.8027749233769</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899915643</v>
+        <v>0.9995302899915447</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925574426684e-05</v>
+        <v>1.832925574426831e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729613576017</v>
+        <v>0.026067296135763</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8434085038575</v>
+        <v>268.843408554415</v>
       </c>
       <c r="LH2" t="n">
-        <v>97121.33591004167</v>
+        <v>97121.33597796016</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259312807180799</v>
+        <v>1.259312807824347</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.6127028873</v>
+        <v>317845.6127390121</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.099948503</v>
+        <v>394968.0999991487</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.609748096756</v>
+        <v>3788.60974808453</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623574.6582207698</v>
+        <v>-623574.6583583796</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078693070585</v>
+        <v>716.807869308668</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539795486494</v>
+        <v>1005.539795488528</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802394536424</v>
+        <v>1.402802394536113</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679200723901</v>
+        <v>0.9993679200726192</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8154049620149</v>
+        <v>328.8154049929721</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.3598883303</v>
+        <v>136156.359983548</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344497170900852e-06</v>
+        <v>7.344497165764653e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.25625464164</v>
+        <v>97060.25632254002</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030287821800571e-05</v>
+        <v>1.030287821079835e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732878039305054</v>
+        <v>0.003732878038604951</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.70013450885899e-05</v>
+        <v>1.70013450911492e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402857193767102</v>
+        <v>0.02402857194158404</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.33591004167</v>
+        <v>97121.33597796016</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259312807180799</v>
+        <v>1.259312807824347</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259312807180799</v>
+        <v>1.259312807824347</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.6127028873</v>
+        <v>317845.6127390121</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.099948503</v>
+        <v>394968.0999991487</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.609748096756</v>
+        <v>3788.60974808453</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078693070585</v>
+        <v>716.807869308668</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539795486494</v>
+        <v>1005.539795488528</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8154049620149</v>
+        <v>328.8154049929721</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679200723901</v>
+        <v>0.9993679200726192</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.70013450885899e-05</v>
+        <v>1.70013450911492e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402857193767102</v>
+        <v>0.02402857194158404</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.831652504879851</v>
+        <v>0.8316525035682422</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4217410446033853</v>
+        <v>0.4217410434060082</v>
       </c>
       <c r="MP2" t="n">
-        <v>247902.8544782629</v>
+        <v>247902.8539867143</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740246987496148</v>
+        <v>2.740246984638493</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.5259832827</v>
+        <v>381305.5260341288</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.2439391354384</v>
+        <v>135.2439391511529</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2099309327718</v>
+        <v>123.2099308072568</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.76948979874004</v>
+        <v>-55.76949011414538</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35331184610822</v>
+        <v>-24.3533119897664</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0885640547758</v>
+        <v>253.0885642691782</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2099309327718</v>
+        <v>123.2099308072568</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.07268979874</v>
+        <v>-221.0726901141454</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86786569761384</v>
+        <v>-60.86786575719523</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8579341688225</v>
+        <v>236.8579341654202</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999860042</v>
+        <v>60000.00000031108</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831275048029057</v>
+        <v>0.8831275048408288</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.8300041475</v>
+        <v>295000.8300017044</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.1893206553</v>
+        <v>362941.1893172319</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930415349585</v>
+        <v>3799.930415326953</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.4788443231</v>
+        <v>-537102.4788294573</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325598140698</v>
+        <v>716.0325598140338</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930662894</v>
+        <v>1004.487930662946</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310129201</v>
+        <v>1.402852310129346</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718935287457</v>
+        <v>0.9992718935286793</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.611444176981</v>
+        <v>308.6114441747599</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96741811963</v>
+        <v>84109.96742052077</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919732935923e-05</v>
+        <v>1.188919732901982e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39513212417</v>
+        <v>59956.39513382964</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878793907354e-05</v>
+        <v>1.667878793859911e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235349901699932</v>
+        <v>0.004235349901761701</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216843172159e-05</v>
+        <v>1.534216843154148e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150523150207025</v>
+        <v>0.02150523150179861</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999860042</v>
+        <v>60000.00000031108</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831275048029057</v>
+        <v>0.8831275048408288</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831275048029057</v>
+        <v>0.8831275048408288</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.8300041475</v>
+        <v>295000.8300017044</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.1893206553</v>
+        <v>362941.1893172319</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930415349585</v>
+        <v>3799.930415326953</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325598140698</v>
+        <v>716.0325598140338</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930662894</v>
+        <v>1004.487930662946</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.611444176981</v>
+        <v>308.6114441747599</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718935287457</v>
+        <v>0.9992718935286793</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216843172159e-05</v>
+        <v>1.534216843154148e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150523150207025</v>
+        <v>0.02150523150179861</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9907771390847</v>
+        <v>245.9907771380057</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68471.84085621398</v>
+        <v>68471.84085830659</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703790580801458</v>
+        <v>0.9703790581140932</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.6985086036</v>
+        <v>301524.6985078246</v>
       </c>
       <c r="OM2" t="n">
-        <v>372086.6508570834</v>
+        <v>372086.6508559924</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.930415348726</v>
+        <v>3799.930415335523</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562661.1850889944</v>
+        <v>-562661.1850827378</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042311259861</v>
+        <v>716.2042311259769</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719244220168</v>
+        <v>1004.719244220219</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023501147</v>
+        <v>1.402839023501237</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991868081622</v>
+        <v>0.9992991868081267</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.51210012587</v>
+        <v>314.5121001251791</v>
       </c>
       <c r="OU2" t="n">
-        <v>95987.8209063481</v>
+        <v>95987.82090928438</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041798835058111e-05</v>
+        <v>1.041798835026242e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68423.97402574796</v>
+        <v>68423.97402783668</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461476060457552e-05</v>
+        <v>1.461476060412939e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078414449514419</v>
+        <v>0.00407841444953288</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582417315987199e-05</v>
+        <v>1.582417315981596e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223537840321902</v>
+        <v>0.02223537840313448</v>
       </c>
       <c r="PB2" t="n">
-        <v>68471.84085621398</v>
+        <v>68471.84085830659</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703790580801458</v>
+        <v>0.9703790581140932</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703790580801458</v>
+        <v>0.9703790581140932</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.6985086036</v>
+        <v>301524.6985078246</v>
       </c>
       <c r="PF2" t="n">
-        <v>372086.6508570834</v>
+        <v>372086.6508559924</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.930415348726</v>
+        <v>3799.930415335523</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042311259861</v>
+        <v>716.2042311259769</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719244220168</v>
+        <v>1004.719244220219</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.51210012587</v>
+        <v>314.5121001251791</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991868081622</v>
+        <v>0.9992991868081267</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582417315987199e-05</v>
+        <v>1.582417315981596e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223537840321902</v>
+        <v>0.02223537840313448</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8328433014166</v>
+        <v>268.8328433520715</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93363.31889756832</v>
+        <v>93363.31896106557</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.210603160193221</v>
+        <v>1.210603160788173</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.7756635175</v>
+        <v>317846.77569972</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.0999484027</v>
+        <v>394968.0999991549</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930415340154</v>
+        <v>3799.930415333836</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626577.997955024</v>
+        <v>-626577.9980950584</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.795508698666</v>
+        <v>716.7955087002698</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462374066613</v>
+        <v>1005.462374068593</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718574356051</v>
+        <v>1.402718574355674</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.999392125038666</v>
+        <v>0.9993921250388991</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8070442890401</v>
+        <v>328.807044320051</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.2376774378</v>
+        <v>130883.2377664485</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640397790773663e-06</v>
+        <v>7.640397785577602e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93306.84006770402</v>
+        <v>93306.84013118493</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071732789658715e-05</v>
+        <v>1.071732788929566e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732514178652317</v>
+        <v>0.003732514177950572</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700024115858806e-05</v>
+        <v>1.700024116115171e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02402642732494545</v>
+        <v>0.02402642732886471</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.31889756832</v>
+        <v>93363.31896106557</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.210603160193221</v>
+        <v>1.210603160788173</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.210603160193221</v>
+        <v>1.210603160788173</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.7756635175</v>
+        <v>317846.77569972</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.0999484027</v>
+        <v>394968.0999991549</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930415340154</v>
+        <v>3799.930415333836</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.795508698666</v>
+        <v>716.7955087002698</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462374066613</v>
+        <v>1005.462374068593</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8070442890401</v>
+        <v>328.807044320051</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.999392125038666</v>
+        <v>0.9993921250388991</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700024115858806e-05</v>
+        <v>1.700024116115171e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02402642732494545</v>
+        <v>0.02402642732886471</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.438233713257501</v>
+        <v>0.4382337133115752</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8200880713601656</v>
+        <v>0.8200880720608005</v>
       </c>
       <c r="QY2" t="n">
-        <v>379650.1692710477</v>
+        <v>379650.1696134259</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740246987333657</v>
+        <v>2.740246984659815</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.5259832827</v>
+        <v>381305.5260341288</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02447288202512895</v>
+        <v>0.02447288193156576</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001918869764584427</v>
+        <v>0.00191886973698992</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189012429133687</v>
+        <v>0.0118901242982774</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198084313955896</v>
+        <v>0.0319808430936946</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237646467669577</v>
+        <v>0.04237646467216769</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.112639183897305</v>
+        <v>0.1126391837326954</v>
       </c>
       <c r="RH2" t="n">
-        <v>-1.234647106773679e-11</v>
+        <v>7.618092268124599e-11</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.7059193438815</v>
+        <v>80.70591965779434</v>
       </c>
       <c r="D3" t="n">
-        <v>80.7059193438815</v>
+        <v>80.70591965779434</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.7059193438815</v>
+        <v>80.70591965779434</v>
       </c>
       <c r="H3" t="n">
-        <v>80.7059193438815</v>
+        <v>80.70591965779434</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3528032937442</v>
+        <v>292.352803268582</v>
       </c>
       <c r="L3" t="n">
-        <v>132773.0183074761</v>
+        <v>132773.0182675323</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582939879003753</v>
+        <v>1.582939878664056</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.2218949628</v>
+        <v>334650.2218769626</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.7083798184</v>
+        <v>418527.7083545842</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.7828541445</v>
+        <v>-687418.7827841919</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129246621469</v>
+        <v>717.7129246610078</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647680590249</v>
+        <v>1006.647680588927</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577055532494</v>
+        <v>1.402577055532879</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979670300498</v>
+        <v>0.999497967029874</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9084201835461</v>
+        <v>342.9084201687758</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.8608751184</v>
+        <v>186131.86081914</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372535337574101e-06</v>
+        <v>5.372535339189869e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132707.0481731592</v>
+        <v>132707.0481332116</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535394794518957e-06</v>
+        <v>7.535394796787267e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433455930491863</v>
+        <v>0.003433455930786896</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817142688345835e-05</v>
+        <v>1.817142688222718e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582433232338747</v>
+        <v>0.02582433232149108</v>
       </c>
       <c r="AD3" t="n">
-        <v>132773.0183074761</v>
+        <v>132773.0182675323</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582939879003753</v>
+        <v>1.582939878664056</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582939879003753</v>
+        <v>1.582939878664056</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.2218949628</v>
+        <v>334650.2218769626</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.7083798184</v>
+        <v>418527.7083545842</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129246621469</v>
+        <v>717.7129246610078</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647680590249</v>
+        <v>1006.647680588927</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9084201835461</v>
+        <v>342.9084201687758</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979670300498</v>
+        <v>0.999497967029874</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817142688345835e-05</v>
+        <v>1.817142688222718e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582433232338747</v>
+        <v>0.02582433232149108</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353570650166089</v>
+        <v>0.2353570659421887</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353570650166089</v>
+        <v>0.2353570659421887</v>
       </c>
       <c r="DH3" t="n">
-        <v>183915.5787585834</v>
+        <v>183915.5794469322</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742649140582424</v>
+        <v>2.742649150661633</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.1969684482786</v>
+        <v>270.1969709129431</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1593490169695</v>
+        <v>111.159350196728</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2722089168074</v>
+        <v>246.2722110884032</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70711543785504</v>
+        <v>65.70711539928303</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1969684482786</v>
+        <v>270.1969709129431</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1593490169695</v>
+        <v>111.159350196728</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2722089168074</v>
+        <v>246.2722110884032</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70711543785504</v>
+        <v>65.70711539928303</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1741888257332</v>
+        <v>259.174188160833</v>
       </c>
       <c r="EC3" t="n">
-        <v>85443.19305170931</v>
+        <v>85443.19225867838</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149274616375769</v>
+        <v>1.149274608660407</v>
       </c>
       <c r="EE3" t="n">
-        <v>310935.9067902648</v>
+        <v>310935.9063152489</v>
       </c>
       <c r="EF3" t="n">
-        <v>385281.2302092697</v>
+        <v>385281.2295433248</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.663779690919</v>
+        <v>3788.663779783839</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596642.6316255605</v>
+        <v>-596642.6297965046</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5266251510446</v>
+        <v>716.5266251332204</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.190956704062</v>
+        <v>1005.19095668111</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866162150174</v>
+        <v>1.402866162153039</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993225259976302</v>
+        <v>0.9993225259949516</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8407494143846</v>
+        <v>322.8407489997255</v>
       </c>
       <c r="EN3" t="n">
-        <v>119784.4679627564</v>
+        <v>119784.4668509098</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.348327767427422e-06</v>
+        <v>8.348327844917103e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85385.52799588714</v>
+        <v>85385.5272031591</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.171158653546264e-05</v>
+        <v>1.171158664419421e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003871867272622294</v>
+        <v>0.003871867282531472</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.65084402163028e-05</v>
+        <v>1.650844018215712e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327624549614787</v>
+        <v>0.02327624544410988</v>
       </c>
       <c r="EU3" t="n">
-        <v>85443.19305170931</v>
+        <v>85443.19225867838</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149274616375769</v>
+        <v>1.149274608660407</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149274616375769</v>
+        <v>1.149274608660407</v>
       </c>
       <c r="EX3" t="n">
-        <v>310935.9067902648</v>
+        <v>310935.9063152489</v>
       </c>
       <c r="EY3" t="n">
-        <v>385281.2302092697</v>
+        <v>385281.2295433248</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.663779690919</v>
+        <v>3788.663779783839</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5266251510446</v>
+        <v>716.5266251332204</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.190956704062</v>
+        <v>1005.19095668111</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8407494143846</v>
+        <v>322.8407489997255</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993225259976302</v>
+        <v>0.9993225259949516</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.65084402163028e-05</v>
+        <v>1.650844018215712e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327624549614787</v>
+        <v>0.02327624544410988</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936554165519</v>
+        <v>295.5936554164504</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.5641285918</v>
+        <v>135263.564084785</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594900121562022</v>
+        <v>1.594900121045803</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3779072554</v>
+        <v>336974.3779072718</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663779696119</v>
+        <v>3788.663779789039</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.5446960762</v>
+        <v>-698120.544723158</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561088314344</v>
+        <v>717.8561088313205</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.77665476311</v>
+        <v>1006.776654762391</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476962133813</v>
+        <v>1.402476962133034</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303767050462</v>
+        <v>0.9995303767051953</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027143551446</v>
+        <v>344.8027143550405</v>
       </c>
       <c r="FU3" t="n">
-        <v>189615.9399247412</v>
+        <v>189615.939863254</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273818226447107e-06</v>
+        <v>5.273818228157262e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.751986862</v>
+        <v>135200.7519430952</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396408565073472e-06</v>
+        <v>7.396408567467817e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618189367001</v>
+        <v>0.003395618189364112</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924920426861e-05</v>
+        <v>1.832924920425736e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728356295834</v>
+        <v>0.02606728356293671</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.5641285918</v>
+        <v>135263.564084785</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594900121562022</v>
+        <v>1.594900121045803</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594900121562022</v>
+        <v>1.594900121045803</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3779072554</v>
+        <v>336974.3779072718</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663779696119</v>
+        <v>3788.663779789039</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561088314344</v>
+        <v>717.8561088313205</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.77665476311</v>
+        <v>1006.776654762391</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8027143551446</v>
+        <v>344.8027143550405</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303767050462</v>
+        <v>0.9995303767051953</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924920426861e-05</v>
+        <v>1.832924920425736e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728356295834</v>
+        <v>0.02606728356293671</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936554165519</v>
+        <v>295.5936554164504</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.5641285918</v>
+        <v>135263.564084785</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594900121562022</v>
+        <v>1.594900121045803</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3779072554</v>
+        <v>336974.3779072718</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663779696119</v>
+        <v>3788.663779789039</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.5446960762</v>
+        <v>-698120.544723158</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561088314344</v>
+        <v>717.8561088313205</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.77665476311</v>
+        <v>1006.776654762391</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476962133813</v>
+        <v>1.402476962133034</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303767050462</v>
+        <v>0.9995303767051953</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8027143551446</v>
+        <v>344.8027143550405</v>
       </c>
       <c r="HB3" t="n">
-        <v>189615.9399247412</v>
+        <v>189615.939863254</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273818226447107e-06</v>
+        <v>5.273818228157262e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.751986862</v>
+        <v>135200.7519430952</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396408565073472e-06</v>
+        <v>7.396408567467817e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618189367001</v>
+        <v>0.003395618189364112</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924920426861e-05</v>
+        <v>1.832924920425736e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728356295834</v>
+        <v>0.02606728356293671</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.5641285918</v>
+        <v>135263.564084785</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594900121562022</v>
+        <v>1.594900121045803</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594900121562022</v>
+        <v>1.594900121045803</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3779072554</v>
+        <v>336974.3779072718</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663779696119</v>
+        <v>3788.663779789039</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561088314344</v>
+        <v>717.8561088313205</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.77665476311</v>
+        <v>1006.776654762391</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8027143551446</v>
+        <v>344.8027143550405</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303767050462</v>
+        <v>0.9995303767051953</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924920426861e-05</v>
+        <v>1.832924920425736e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728356295834</v>
+        <v>0.02606728356293671</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8369357614811671</v>
+        <v>0.8369357701904381</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8369357614811671</v>
+        <v>0.8369357701904381</v>
       </c>
       <c r="HY3" t="n">
-        <v>492080.3071074374</v>
+        <v>492080.3093104145</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.742649140517321</v>
+        <v>2.742649151213579</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01595100147163165</v>
+        <v>0.01595100143763145</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.793991196041439e-07</v>
+        <v>-1.793991206403526e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379123038051363</v>
+        <v>0.01379123037932427</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02518399105034646</v>
+        <v>0.0251839910654654</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05492604350337213</v>
+        <v>0.05492604348330049</v>
       </c>
       <c r="IH3" t="n">
-        <v>-2.550945565893414e-13</v>
+        <v>2.267256521415462e-11</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.1969684482786</v>
+        <v>270.1969709129431</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1593490169695</v>
+        <v>111.159350196728</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2722089168074</v>
+        <v>246.2722110884032</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70711543785504</v>
+        <v>65.70711539928303</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5222937521276</v>
+        <v>137.5222959842977</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1593490169695</v>
+        <v>111.159350196728</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96900891680738</v>
+        <v>80.96901108840322</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06977630717733</v>
+        <v>36.06977674909395</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1741888256335</v>
+        <v>259.1741881607329</v>
       </c>
       <c r="IT3" t="n">
-        <v>85443.19305159412</v>
+        <v>85443.19225856285</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149274616374662</v>
+        <v>1.149274608659297</v>
       </c>
       <c r="IV3" t="n">
-        <v>310935.9067901935</v>
+        <v>310935.9063151773</v>
       </c>
       <c r="IW3" t="n">
-        <v>385281.2302091697</v>
+        <v>385281.2295432244</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.66377969092</v>
+        <v>3788.663779783839</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596642.631625283</v>
+        <v>-596642.6297962256</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5266251510419</v>
+        <v>716.5266251332177</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.190956704059</v>
+        <v>1005.190956681107</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866162150174</v>
+        <v>1.40286616215304</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225259976297</v>
+        <v>0.9993225259949512</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.8407494143223</v>
+        <v>322.8407489996629</v>
       </c>
       <c r="JE3" t="n">
-        <v>119784.4679625949</v>
+        <v>119784.4668507478</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.348327767438679e-06</v>
+        <v>8.348327844928396e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85385.527995772</v>
+        <v>85385.52720304362</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171158653547843e-05</v>
+        <v>1.171158664421006e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871867272623781</v>
+        <v>0.003871867282532965</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650844021629769e-05</v>
+        <v>1.650844018215198e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327624549614007</v>
+        <v>0.02327624544410204</v>
       </c>
       <c r="JL3" t="n">
-        <v>85443.19305159412</v>
+        <v>85443.19225856285</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149274616374662</v>
+        <v>1.149274608659297</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149274616374662</v>
+        <v>1.149274608659297</v>
       </c>
       <c r="JO3" t="n">
-        <v>310935.9067901935</v>
+        <v>310935.9063151773</v>
       </c>
       <c r="JP3" t="n">
-        <v>385281.2302091697</v>
+        <v>385281.2295432244</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.66377969092</v>
+        <v>3788.663779783839</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5266251510419</v>
+        <v>716.5266251332177</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.190956704059</v>
+        <v>1005.190956681107</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.8407494143223</v>
+        <v>322.8407489996629</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225259976297</v>
+        <v>0.9993225259949512</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650844021629769e-05</v>
+        <v>1.650844018215198e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327624549614007</v>
+        <v>0.02327624544410204</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.593655416452</v>
+        <v>295.5936554165504</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.564128431</v>
+        <v>135263.5640849447</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594900121560666</v>
+        <v>1.594900121047146</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3779071837</v>
+        <v>336974.3779073434</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.66377969612</v>
+        <v>3788.66377978904</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.5446957982</v>
+        <v>-698120.5447234367</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561088314299</v>
+        <v>717.8561088313249</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776654763105</v>
+        <v>1006.776654762396</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476962133814</v>
+        <v>1.402476962133032</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303767050454</v>
+        <v>0.999530376705196</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027143550863</v>
+        <v>344.8027143550989</v>
       </c>
       <c r="KL3" t="n">
-        <v>189615.9399245159</v>
+        <v>189615.9398634778</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273818226453375e-06</v>
+        <v>5.273818228151037e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.7519867012</v>
+        <v>135200.7519432549</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396408565082269e-06</v>
+        <v>7.396408567459075e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618189368146</v>
+        <v>0.003395618189362963</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924920426373e-05</v>
+        <v>1.832924920426223e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728356295082</v>
+        <v>0.02606728356294422</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.564128431</v>
+        <v>135263.5640849447</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594900121560666</v>
+        <v>1.594900121047146</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594900121560666</v>
+        <v>1.594900121047146</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3779071837</v>
+        <v>336974.3779073434</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.66377969612</v>
+        <v>3788.66377978904</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561088314299</v>
+        <v>717.8561088313249</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776654763105</v>
+        <v>1006.776654762396</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027143550863</v>
+        <v>344.8027143550989</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303767050454</v>
+        <v>0.999530376705196</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924920426373e-05</v>
+        <v>1.832924920426223e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728356295082</v>
+        <v>0.02606728356294422</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6131314840118</v>
+        <v>268.6131311254558</v>
       </c>
       <c r="LH3" t="n">
-        <v>96812.91205582737</v>
+        <v>96812.91157320709</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256391135379144</v>
+        <v>1.256391130795033</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317681.0732436251</v>
+        <v>317681.0729874345</v>
       </c>
       <c r="LK3" t="n">
-        <v>394737.4208487935</v>
+        <v>394737.4204896211</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.663779697551</v>
+        <v>3788.66377979047</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622947.421155818</v>
+        <v>-622947.4201815013</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8005541589251</v>
+        <v>716.8005541475476</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530554854566</v>
+        <v>1005.53055484014</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.40280381902666</v>
+        <v>1.4028038190288</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668746951893</v>
+        <v>0.9993668746935841</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6743722566459</v>
+        <v>328.6743720370004</v>
       </c>
       <c r="LS3" t="n">
-        <v>135723.9679009312</v>
+        <v>135723.9672243217</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.36789540908448e-06</v>
+        <v>7.36789544581482e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96751.92358337299</v>
+        <v>96751.92310089887</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.03357118180527e-05</v>
+        <v>1.033571186959393e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736069646944202</v>
+        <v>0.003736069651917587</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698968615542061e-05</v>
+        <v>1.698968613726337e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401074691085905</v>
+        <v>0.02401074688309962</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96812.91205582737</v>
+        <v>96812.91157320709</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256391135379144</v>
+        <v>1.256391130795033</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256391135379144</v>
+        <v>1.256391130795033</v>
       </c>
       <c r="MC3" t="n">
-        <v>317681.0732436251</v>
+        <v>317681.0729874345</v>
       </c>
       <c r="MD3" t="n">
-        <v>394737.4208487935</v>
+        <v>394737.4204896211</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.663779697551</v>
+        <v>3788.66377979047</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8005541589251</v>
+        <v>716.8005541475476</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530554854566</v>
+        <v>1005.53055484014</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6743722566459</v>
+        <v>328.6743720370004</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668746951893</v>
+        <v>0.9993668746935841</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698968615542061e-05</v>
+        <v>1.698968613726337e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401074691085905</v>
+        <v>0.02401074688309962</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8369357614813284</v>
+        <v>0.8369357701906002</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.425975636599816</v>
+        <v>0.4259756440610948</v>
       </c>
       <c r="MP3" t="n">
-        <v>249496.9794351568</v>
+        <v>249496.9823259443</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.742649140514679</v>
+        <v>2.742649151210931</v>
       </c>
       <c r="MR3" t="n">
-        <v>381074.846883573</v>
+        <v>381074.8465246011</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5910608762149</v>
+        <v>142.5910602864408</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.226906574439</v>
+        <v>127.2269069943604</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.38575063865767</v>
+        <v>-64.38574850275307</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84261417516259</v>
+        <v>-26.84261333320207</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5713232666293</v>
+        <v>262.5713216016783</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.226906574439</v>
+        <v>127.2269069943604</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6889506386577</v>
+        <v>-229.6889485027531</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01751207135364</v>
+        <v>-61.01751176536384</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1851361007914</v>
+        <v>234.1851361787888</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000487688</v>
+        <v>57500.00004465483</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559939625921189</v>
+        <v>0.8559939628987281</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.1999687243</v>
+        <v>293092.2000245118</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.5709475984</v>
+        <v>360265.5710257948</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777670943648</v>
+        <v>3800.777671079124</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529820.0652111886</v>
+        <v>-529820.0654611697</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876087269959</v>
+        <v>715.987608728116</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565411578</v>
+        <v>1004.421565412548</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847693408283</v>
+        <v>1.402847693407443</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670944439906</v>
+        <v>0.9992670944445308</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8632621274314</v>
+        <v>306.8632621786074</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72425394101</v>
+        <v>80604.72430969799</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622071790174e-05</v>
+        <v>1.240622070931994e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92977576069</v>
+        <v>57457.92981554069</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403811802252e-05</v>
+        <v>1.740403810597313e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283550528323735</v>
+        <v>0.004283550526893626</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519974494168904e-05</v>
+        <v>1.519974494584897e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128989151170195</v>
+        <v>0.02128989151798343</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000487688</v>
+        <v>57500.00004465483</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559939625921189</v>
+        <v>0.8559939628987281</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559939625921189</v>
+        <v>0.8559939628987281</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.1999687243</v>
+        <v>293092.2000245118</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.5709475984</v>
+        <v>360265.5710257948</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777670943648</v>
+        <v>3800.777671079124</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876087269959</v>
+        <v>715.987608728116</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565411578</v>
+        <v>1004.421565412548</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8632621274314</v>
+        <v>306.8632621786074</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670944439906</v>
+        <v>0.9992670944445308</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519974494168904e-05</v>
+        <v>1.519974494584897e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128989151170195</v>
+        <v>0.02128989151798343</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3375268131457</v>
+        <v>244.3375268071478</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66682.02879764189</v>
+        <v>66682.02876053481</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9514112699723378</v>
+        <v>0.9514112694659568</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.1852937615</v>
+        <v>300344.1852895602</v>
       </c>
       <c r="OM3" t="n">
-        <v>370431.6762687009</v>
+        <v>370431.676262801</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.777670952323</v>
+        <v>3800.7776710878</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558240.9398184178</v>
+        <v>-558240.9398346229</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698323154702</v>
+        <v>716.1698323152183</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.66971345393</v>
+        <v>1004.669713452955</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837243514855</v>
+        <v>1.402837243513986</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959090476706</v>
+        <v>0.9992959090479823</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.452194798219</v>
+        <v>313.4521947943721</v>
       </c>
       <c r="OU3" t="n">
-        <v>93478.32499288289</v>
+        <v>93478.32494083537</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069766708032195e-05</v>
+        <v>1.069766708627827e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.189096256</v>
+        <v>66635.18905919566</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500708579899845e-05</v>
+        <v>1.500708580734491e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105916007536532</v>
+        <v>0.004105916007630897</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573740359893309e-05</v>
+        <v>1.5737403598613e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210374185000255</v>
+        <v>0.02210374184951245</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.02879764189</v>
+        <v>66682.02876053481</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514112699723378</v>
+        <v>0.9514112694659568</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514112699723378</v>
+        <v>0.9514112694659568</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.1852937615</v>
+        <v>300344.1852895602</v>
       </c>
       <c r="PF3" t="n">
-        <v>370431.6762687009</v>
+        <v>370431.676262801</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.777670952323</v>
+        <v>3800.7776710878</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698323154702</v>
+        <v>716.1698323152183</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.66971345393</v>
+        <v>1004.669713452955</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.452194798219</v>
+        <v>313.4521947943721</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959090476706</v>
+        <v>0.9992959090479823</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573740359893309e-05</v>
+        <v>1.5737403598613e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210374185000255</v>
+        <v>0.02210374184951245</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.6018582584093</v>
+        <v>268.6018579002354</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92809.84599812258</v>
+        <v>92809.84552439082</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.204460603527407</v>
+        <v>1.204460598987325</v>
       </c>
       <c r="PS3" t="n">
-        <v>317682.309434977</v>
+        <v>317682.309179057</v>
       </c>
       <c r="PT3" t="n">
-        <v>394737.4208485989</v>
+        <v>394737.4204898152</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.777670950566</v>
+        <v>3800.777671079124</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626158.524395792</v>
+        <v>-626158.5234277671</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7873582349422</v>
+        <v>716.7873582235588</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447913950589</v>
+        <v>1005.447913936085</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714350914979</v>
+        <v>1.402714350917021</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927849321189</v>
+        <v>0.9993927849306581</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6654731684</v>
+        <v>328.6654729490212</v>
       </c>
       <c r="QB3" t="n">
-        <v>130107.0307271483</v>
+        <v>130107.0300630355</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685979723087624e-06</v>
+        <v>7.685979762319608e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92753.76033779119</v>
+        <v>92753.75986420787</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078123405841654e-05</v>
+        <v>1.078123411346351e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735680730176092</v>
+        <v>0.003735680735142843</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698850882174911e-05</v>
+        <v>1.698850880361177e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.0240084594805255</v>
+        <v>0.02400845945279625</v>
       </c>
       <c r="QI3" t="n">
-        <v>92809.84599812258</v>
+        <v>92809.84552439082</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204460603527407</v>
+        <v>1.204460598987325</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204460603527407</v>
+        <v>1.204460598987325</v>
       </c>
       <c r="QL3" t="n">
-        <v>317682.309434977</v>
+        <v>317682.309179057</v>
       </c>
       <c r="QM3" t="n">
-        <v>394737.4208485989</v>
+        <v>394737.4204898152</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.777670950566</v>
+        <v>3800.777671079124</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7873582349422</v>
+        <v>716.7873582235588</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447913950589</v>
+        <v>1005.447913936085</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6654731684</v>
+        <v>328.6654729490212</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927849321189</v>
+        <v>0.9993927849306581</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698850882174911e-05</v>
+        <v>1.698850880361177e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.0240084594805255</v>
+        <v>0.02400845945279625</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4646729617864813</v>
+        <v>0.4646729597870429</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8556622954675854</v>
+        <v>0.8556622898991758</v>
       </c>
       <c r="QY3" t="n">
-        <v>385350.6584903657</v>
+        <v>385350.6560794422</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.742649141238757</v>
+        <v>2.742649151273458</v>
       </c>
       <c r="RA3" t="n">
-        <v>381074.846883573</v>
+        <v>381074.8465246011</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459644695381097</v>
+        <v>0.02459644753390269</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002168220897516761</v>
+        <v>0.002168221164867841</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.0118866813152243</v>
+        <v>0.01188668127090233</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204646801175858</v>
+        <v>0.03204646832407327</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04267186608723059</v>
+        <v>0.04267186623379524</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133696832655412</v>
+        <v>0.1133696845275414</v>
       </c>
       <c r="RH3" t="n">
-        <v>3.66892766168192e-11</v>
+        <v>1.717074260554341e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,34 +8689,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593440613484796</v>
+        <v>0.01593440615006081</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788006365303468e-07</v>
+        <v>-1.788006369548784e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379068410719914</v>
+        <v>0.01379068410771346</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519148974810759</v>
+        <v>0.02519148974143534</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491640118951817</v>
+        <v>0.05491640119857266</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.157294481941463e-11</v>
+        <v>2.927172393363264e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172066595</v>
+        <v>81.75758172385052</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172066595</v>
+        <v>81.75758172385052</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172066595</v>
+        <v>81.75758172385052</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172066595</v>
+        <v>81.75758172385052</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180729563</v>
+        <v>292.2676180726967</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394382309</v>
+        <v>132637.8394378186</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096106708</v>
+        <v>1.581790096103199</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834754182</v>
+        <v>334589.2834752324</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800042845</v>
+        <v>418442.280004024</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723464</v>
+        <v>3782.917347723465</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625817176</v>
+        <v>-687181.9625809964</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713704222</v>
+        <v>717.7090713704105</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103417</v>
+        <v>1006.643209103403</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574206</v>
+        <v>1.40257835557421</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756425</v>
+        <v>0.9994973723756407</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121224587</v>
+        <v>342.8584121223063</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165877425</v>
+        <v>185942.4165871648</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054368291e-06</v>
+        <v>5.378009054385e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565731175</v>
+        <v>132571.8565727052</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095739065e-06</v>
+        <v>7.543079095762522e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038594605</v>
+        <v>0.003434455038597649</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856048919e-05</v>
+        <v>1.816725856047649e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190130817</v>
+        <v>0.0258179119012886</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394382309</v>
+        <v>132637.8394378186</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096106708</v>
+        <v>1.581790096103199</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096106708</v>
+        <v>1.581790096103199</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834754182</v>
+        <v>334589.2834752324</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800042845</v>
+        <v>418442.280004024</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723464</v>
+        <v>3782.917347723465</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713704222</v>
+        <v>717.7090713704105</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103417</v>
+        <v>1006.643209103403</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121224587</v>
+        <v>342.8584121223063</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756425</v>
+        <v>0.9994973723756407</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856048919e-05</v>
+        <v>1.816725856047649e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190130817</v>
+        <v>0.0258179119012886</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8841,10 +8841,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475829663</v>
@@ -8853,10 +8853,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368990486</v>
       </c>
       <c r="BF2" t="n">
         <v>717.8632360362602</v>
@@ -8874,16 +8874,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.897437241</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087296878e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617461897</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346979635e-06</v>
       </c>
       <c r="BO2" t="n">
         <v>0.003395798695744087</v>
@@ -8895,13 +8895,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475829663</v>
@@ -8910,7 +8910,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BX2" t="n">
         <v>717.8632360362602</v>
@@ -8942,10 +8942,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475829663</v>
@@ -8954,10 +8954,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368990486</v>
       </c>
       <c r="CM2" t="n">
         <v>717.8632360362602</v>
@@ -8975,16 +8975,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.897437241</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087296878e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617461897</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346979635e-06</v>
       </c>
       <c r="CV2" t="n">
         <v>0.003395798695744087</v>
@@ -8996,13 +8996,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475829663</v>
@@ -9011,7 +9011,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="DE2" t="n">
         <v>717.8632360362602</v>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305720374</v>
+        <v>0.2384587305814317</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305720374</v>
+        <v>0.2384587305814317</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.532311675</v>
+        <v>186219.5323186456</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.77636993459783</v>
+        <v>2.776369934699815</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780806490353</v>
+        <v>309.3780781463047</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136428823064</v>
+        <v>126.4136418596764</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.372781406611</v>
+        <v>282.3727791223412</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780806490353</v>
+        <v>309.3780781463047</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136428823064</v>
+        <v>126.4136418596764</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.372781406611</v>
+        <v>282.3727791223412</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365037589831</v>
+        <v>247.8365045322308</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23661380621</v>
+        <v>72726.2374289424</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014658072507</v>
+        <v>1.023014666344382</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9109266887</v>
+        <v>302836.9114789997</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0326956494</v>
+        <v>373927.0334699394</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061473531</v>
+        <v>3790.093061382712</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3805811313</v>
+        <v>-565396.3827150138</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430304593</v>
+        <v>716.2529430471463</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581168904</v>
+        <v>1004.83158119134</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457089184</v>
+        <v>1.402900457087823</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812858966212</v>
+        <v>0.9992812858991281</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911147973058</v>
+        <v>315.6911152904277</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5410374955</v>
+        <v>101954.5421803918</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292890379771e-06</v>
+        <v>9.808292780430171e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.10921587161</v>
+        <v>72674.11003060873</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005857917837e-05</v>
+        <v>1.376005842491669e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559464305449</v>
+        <v>0.004048559451704068</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.59211311053022e-05</v>
+        <v>1.592113114570871e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288364175974</v>
+        <v>0.02238288370310601</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23661380621</v>
+        <v>72726.2374289424</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014658072507</v>
+        <v>1.023014666344382</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014658072507</v>
+        <v>1.023014666344382</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9109266887</v>
+        <v>302836.9114789997</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0326956494</v>
+        <v>373927.0334699394</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061473531</v>
+        <v>3790.093061382712</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430304593</v>
+        <v>716.2529430471463</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581168904</v>
+        <v>1004.83158119134</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911147973058</v>
+        <v>315.6911152904277</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812858966212</v>
+        <v>0.9992812858991281</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.59211311053022e-05</v>
+        <v>1.592113114570871e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288364175974</v>
+        <v>0.02238288370310601</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968646793</v>
+        <v>295.5920968649783</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4164868651</v>
+        <v>134591.4165297871</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979526412612</v>
+        <v>1.586979526917331</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.630932396</v>
+        <v>336974.6309325233</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061483179</v>
+        <v>3790.093061392359</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1242675955</v>
+        <v>-698537.1242416824</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580606292</v>
+        <v>717.8543580607496</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618719548</v>
+        <v>1006.765618720258</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008974031</v>
+        <v>1.402465008974786</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648236474</v>
+        <v>0.9995326648235038</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163633304</v>
+        <v>344.8011163635487</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5201646839</v>
+        <v>188672.5202249277</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188915307562e-06</v>
+        <v>5.300188913615193e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2174545636</v>
+        <v>134529.2174974468</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329494670881e-06</v>
+        <v>7.433329492301392e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843597309</v>
+        <v>0.003395573843597824</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665244786e-05</v>
+        <v>1.832907665246855e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184414885</v>
+        <v>0.02606695184418491</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4164868651</v>
+        <v>134591.4165297871</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979526412612</v>
+        <v>1.586979526917331</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979526412612</v>
+        <v>1.586979526917331</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.630932396</v>
+        <v>336974.6309325233</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061483179</v>
+        <v>3790.093061392359</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580606292</v>
+        <v>717.8543580607496</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618719548</v>
+        <v>1006.765618720258</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163633304</v>
+        <v>344.8011163635487</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648236474</v>
+        <v>0.9995326648235038</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665244786e-05</v>
+        <v>1.832907665246855e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184414885</v>
+        <v>0.02606695184418491</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968646793</v>
+        <v>295.5920968649783</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4164868651</v>
+        <v>134591.4165297871</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979526412612</v>
+        <v>1.586979526917331</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.630932396</v>
+        <v>336974.6309325233</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061483179</v>
+        <v>3790.093061392359</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1242675955</v>
+        <v>-698537.1242416824</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580606292</v>
+        <v>717.8543580607496</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618719548</v>
+        <v>1006.765618720258</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008974031</v>
+        <v>1.402465008974786</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648236474</v>
+        <v>0.9995326648235038</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163633304</v>
+        <v>344.8011163635487</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5201646839</v>
+        <v>188672.5202249277</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188915307562e-06</v>
+        <v>5.300188913615193e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2174545636</v>
+        <v>134529.2174974468</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329494670881e-06</v>
+        <v>7.433329492301392e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843597309</v>
+        <v>0.003395573843597824</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665244786e-05</v>
+        <v>1.832907665246855e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184414885</v>
+        <v>0.02606695184418491</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4164868651</v>
+        <v>134591.4165297871</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979526412612</v>
+        <v>1.586979526917331</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979526412612</v>
+        <v>1.586979526917331</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.630932396</v>
+        <v>336974.6309325233</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061483179</v>
+        <v>3790.093061392359</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580606292</v>
+        <v>717.8543580607496</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618719548</v>
+        <v>1006.765618720258</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163633304</v>
+        <v>344.8011163635487</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648236474</v>
+        <v>0.9995326648235038</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665244786e-05</v>
+        <v>1.832907665246855e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184414885</v>
+        <v>0.02606695184418491</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,37 +9385,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.0161933732757355</v>
+        <v>0.01619337326853835</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005795267431e-07</v>
+        <v>-1.972005774727072e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.0137972782786793</v>
+        <v>0.01379727827868005</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007320651</v>
+        <v>0.02510093007318876</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.0550913844270418</v>
+        <v>0.05509138441982969</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578282546658819e-06</v>
+        <v>5.578243057309529e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024965785816</v>
+        <v>0.9800024871199967</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024965785816</v>
+        <v>0.9800024871199967</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1663343592</v>
+        <v>520038.1650125845</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991738497</v>
+        <v>2.776362991728027</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>1473.439601988066</v>
+        <v>1473.4395993941</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006566863974021476</v>
+        <v>0.006566863972744957</v>
       </c>
       <c r="IL2" t="n">
-        <v>-7.368705483133123e-08</v>
+        <v>-7.368705492161445e-08</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01038187963070627</v>
+        <v>0.01038187961602665</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.005683396411154714</v>
+        <v>0.005683396404835858</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02447288202512895</v>
+        <v>0.02447288193156576</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.001918869764584427</v>
+        <v>0.00191886973698992</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01189012429133687</v>
+        <v>0.0118901242982774</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03198084313955896</v>
+        <v>0.0319808430936946</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04237646467669577</v>
+        <v>0.04237646467216769</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.112639183897305</v>
+        <v>0.1126391837326954</v>
       </c>
       <c r="IV2" t="n">
-        <v>-1.234647106773679e-11</v>
+        <v>7.618092268124599e-11</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>272.0237978545399</v>
+        <v>272.0237981059285</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.980768535081</v>
+        <v>111.9807685678654</v>
       </c>
       <c r="IZ2" t="n">
-        <v>247.9057362738914</v>
+        <v>247.905736534928</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.69097053155019</v>
+        <v>65.69097054789071</v>
       </c>
       <c r="JB2" t="n">
-        <v>139.1505354664039</v>
+        <v>139.1505356477435</v>
       </c>
       <c r="JC2" t="n">
-        <v>111.980768535081</v>
+        <v>111.9807685678654</v>
       </c>
       <c r="JD2" t="n">
-        <v>82.60253627389145</v>
+        <v>82.60253653492796</v>
       </c>
       <c r="JE2" t="n">
-        <v>36.41431508150551</v>
+        <v>36.41431515998846</v>
       </c>
       <c r="JF2" t="n">
-        <v>258.6798007581378</v>
+        <v>258.6798006898733</v>
       </c>
       <c r="JG2" t="n">
-        <v>84891.32870986193</v>
+        <v>84891.3286331095</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.144036534070497</v>
+        <v>1.144036533338402</v>
       </c>
       <c r="JI2" t="n">
-        <v>310582.6205862678</v>
+        <v>310582.6205374885</v>
       </c>
       <c r="JJ2" t="n">
-        <v>384785.9577889859</v>
+        <v>384785.9577206019</v>
       </c>
       <c r="JK2" t="n">
-        <v>3788.609748089536</v>
+        <v>3788.609748084529</v>
       </c>
       <c r="JL2" t="n">
-        <v>-595250.8569971538</v>
+        <v>-595250.8568056155</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.5135610134304</v>
+        <v>716.5135610116321</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.174772344229</v>
+        <v>1005.174772341986</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402869152849695</v>
+        <v>1.402869152850085</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.999320254114145</v>
+        <v>0.9993202541138383</v>
       </c>
       <c r="JQ2" t="n">
-        <v>322.5322908681571</v>
+        <v>322.5322908255449</v>
       </c>
       <c r="JR2" t="n">
-        <v>119010.7785112698</v>
+        <v>119010.7784036653</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.402600272926574e-06</v>
+        <v>8.402600280523849e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>84833.84089636535</v>
+        <v>84833.84081963854</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.178774872661512e-05</v>
+        <v>1.178774873727638e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.00387925508075034</v>
+        <v>0.003879255081772269</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.648304723674675e-05</v>
+        <v>1.648304723323908e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02323755461292266</v>
+        <v>0.02323755460757843</v>
       </c>
       <c r="JY2" t="n">
-        <v>84891.32870986193</v>
+        <v>84891.3286331095</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.144036534070497</v>
+        <v>1.144036533338402</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.144036534070497</v>
+        <v>1.144036533338402</v>
       </c>
       <c r="KB2" t="n">
-        <v>310582.6205862678</v>
+        <v>310582.6205374885</v>
       </c>
       <c r="KC2" t="n">
-        <v>384785.9577889859</v>
+        <v>384785.9577206019</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.609748089536</v>
+        <v>3788.609748084529</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.5135610134304</v>
+        <v>716.5135610116321</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.174772344229</v>
+        <v>1005.174772341986</v>
       </c>
       <c r="KG2" t="n">
-        <v>322.5322908681571</v>
+        <v>322.5322908255449</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.999320254114145</v>
+        <v>0.9993202541138383</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.648304723674675e-05</v>
+        <v>1.648304723323908e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02323755461292266</v>
+        <v>0.02323755460757843</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5937144862176</v>
+        <v>295.5937144864229</v>
       </c>
       <c r="KN2" t="n">
-        <v>135289.0393135461</v>
+        <v>135289.0393162269</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.595200320483603</v>
+        <v>1.595200320514115</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.3683167543</v>
+        <v>336974.3683168966</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KR2" t="n">
-        <v>3788.609748094736</v>
+        <v>3788.60974808973</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698104.7970896271</v>
+        <v>-698104.7970887246</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.8561751867368</v>
+        <v>717.8561751867524</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.777073038376</v>
+        <v>1006.777073038425</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402477415168131</v>
+        <v>1.40247741516817</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.999530289991552</v>
+        <v>0.9995302899915455</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8027749233131</v>
+        <v>344.8027749234353</v>
       </c>
       <c r="KY2" t="n">
-        <v>189651.6968764121</v>
+        <v>189651.6968801742</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.272823900181908e-06</v>
+        <v>5.272823900077311e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>135226.2038769989</v>
+        <v>135226.2038796776</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.395016434163866e-06</v>
+        <v>7.395016434017376e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395619870062544</v>
+        <v>0.003395619870060408</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832925574426283e-05</v>
+        <v>1.832925574427317e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606729613575432</v>
+        <v>0.0260672961357705</v>
       </c>
       <c r="LF2" t="n">
-        <v>135289.0393135461</v>
+        <v>135289.0393162269</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.595200320483603</v>
+        <v>1.595200320514115</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.595200320483603</v>
+        <v>1.595200320514115</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.3683167543</v>
+        <v>336974.3683168966</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="LK2" t="n">
-        <v>3788.609748094736</v>
+        <v>3788.60974808973</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.8561751867368</v>
+        <v>717.8561751867524</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.777073038376</v>
+        <v>1006.777073038425</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8027749233131</v>
+        <v>344.8027749234353</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.999530289991552</v>
+        <v>0.9995302899915455</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832925574426283e-05</v>
+        <v>1.832925574427317e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606729613575432</v>
+        <v>0.0260672961357705</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>268.3436842097498</v>
+        <v>268.3436841664885</v>
       </c>
       <c r="LU2" t="n">
-        <v>96492.24862408286</v>
+        <v>96492.24857142741</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.253488949993689</v>
+        <v>1.253488949512034</v>
       </c>
       <c r="LW2" t="n">
-        <v>317488.4551832339</v>
+        <v>317488.4551523112</v>
       </c>
       <c r="LX2" t="n">
-        <v>394467.3935492792</v>
+        <v>394467.3935059285</v>
       </c>
       <c r="LY2" t="n">
-        <v>3788.609748096182</v>
+        <v>3788.609748091175</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-622182.1042878225</v>
+        <v>-622182.104165929</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.7921572790034</v>
+        <v>716.7921572776544</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.520591120386</v>
+        <v>1005.520591118764</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402806351756717</v>
+        <v>1.402806351757094</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993653998623683</v>
+        <v>0.9993653998621399</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.5092924321957</v>
+        <v>328.5092924056838</v>
       </c>
       <c r="MF2" t="n">
-        <v>135274.4657626212</v>
+        <v>135274.4656888075</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.392378113359501e-06</v>
+        <v>7.392378117393215e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>96431.31825944375</v>
+        <v>96431.31820679925</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.037007497200804e-05</v>
+        <v>1.037007497766935e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003739816483955061</v>
+        <v>0.003739816484557073</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.697604497848533e-05</v>
+        <v>1.697604497629453e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.0239898978051833</v>
+        <v>0.0239898978018349</v>
       </c>
       <c r="MM2" t="n">
-        <v>96492.24862408286</v>
+        <v>96492.24857142741</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.253488949993689</v>
+        <v>1.253488949512034</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.253488949993689</v>
+        <v>1.253488949512034</v>
       </c>
       <c r="MP2" t="n">
-        <v>317488.4551832339</v>
+        <v>317488.4551523112</v>
       </c>
       <c r="MQ2" t="n">
-        <v>394467.3935492792</v>
+        <v>394467.3935059285</v>
       </c>
       <c r="MR2" t="n">
-        <v>3788.609748096182</v>
+        <v>3788.609748091175</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.7921572790034</v>
+        <v>716.7921572776544</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.520591120386</v>
+        <v>1005.520591118764</v>
       </c>
       <c r="MU2" t="n">
-        <v>328.5092924321957</v>
+        <v>328.5092924056838</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993653998623683</v>
+        <v>0.9993653998621399</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.697604497848533e-05</v>
+        <v>1.697604497629453e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.0239898978051833</v>
+        <v>0.0239898978018349</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.843400197612264</v>
+        <v>0.8434001985031134</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4314313307726608</v>
+        <v>0.4314313313918974</v>
       </c>
       <c r="NC2" t="n">
-        <v>251687.5212591059</v>
+        <v>251687.5214796022</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.750323508485421</v>
+        <v>2.750323507530634</v>
       </c>
       <c r="NE2" t="n">
-        <v>380804.8195840591</v>
+        <v>380804.8195409087</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>165.5472207059225</v>
+        <v>165.5472170641559</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.8410661330597</v>
+        <v>139.8410641282145</v>
       </c>
       <c r="NI2" t="n">
-        <v>-88.60224887791856</v>
+        <v>-88.60224523777805</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-32.35803985591003</v>
+        <v>-32.35803916305724</v>
       </c>
       <c r="NK2" t="n">
-        <v>289.8680747290534</v>
+        <v>289.8680705733312</v>
       </c>
       <c r="NL2" t="n">
-        <v>139.8410661330597</v>
+        <v>139.8410641282145</v>
       </c>
       <c r="NM2" t="n">
-        <v>-253.9054488779186</v>
+        <v>-253.9054452377781</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO2" t="n">
-        <v>226.3832932828262</v>
+        <v>226.383294442915</v>
       </c>
       <c r="NP2" t="n">
-        <v>50711.02206488129</v>
+        <v>50711.02302527471</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7809539865823683</v>
+        <v>0.7809539973693502</v>
       </c>
       <c r="NR2" t="n">
-        <v>287520.9313538265</v>
+        <v>287520.9321822327</v>
       </c>
       <c r="NS2" t="n">
-        <v>352455.6431757153</v>
+        <v>352455.6443369757</v>
       </c>
       <c r="NT2" t="n">
-        <v>3802.898799163801</v>
+        <v>3802.898798861178</v>
       </c>
       <c r="NU2" t="n">
-        <v>-508457.111000291</v>
+        <v>-508457.1141822222</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8712582964959</v>
+        <v>715.8712583122549</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.245344652342</v>
+        <v>1004.245344676842</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.40282953535817</v>
+        <v>1.402829535361513</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992549629922428</v>
+        <v>0.9992549629937796</v>
       </c>
       <c r="NZ2" t="n">
-        <v>301.7027546449807</v>
+        <v>301.7027554188397</v>
       </c>
       <c r="OA2" t="n">
-        <v>71085.98688651522</v>
+        <v>71085.98823306253</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.406747016956301e-05</v>
+        <v>1.406746990308976e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>50673.28930194326</v>
+        <v>50673.29026170202</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.9734262641633e-05</v>
+        <v>1.973426226786348e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004430768955187535</v>
+        <v>0.004430768932542551</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.478048795550475e-05</v>
+        <v>1.478048801824296e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02065714931070654</v>
+        <v>0.02065714940526232</v>
       </c>
       <c r="OH2" t="n">
-        <v>50711.02206488129</v>
+        <v>50711.02302527471</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7809539865823683</v>
+        <v>0.7809539973693502</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7809539865823683</v>
+        <v>0.7809539973693502</v>
       </c>
       <c r="OK2" t="n">
-        <v>287520.9313538265</v>
+        <v>287520.9321822327</v>
       </c>
       <c r="OL2" t="n">
-        <v>352455.6431757153</v>
+        <v>352455.6443369757</v>
       </c>
       <c r="OM2" t="n">
-        <v>3802.898799163801</v>
+        <v>3802.898798861178</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8712582964959</v>
+        <v>715.8712583122549</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.245344652342</v>
+        <v>1004.245344676842</v>
       </c>
       <c r="OP2" t="n">
-        <v>301.7027546449807</v>
+        <v>301.7027554188397</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992549629922428</v>
+        <v>0.9992549629937796</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.478048795550475e-05</v>
+        <v>1.478048801824296e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02065714931070654</v>
+        <v>0.02065714940526232</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>240.0687878241712</v>
+        <v>240.068788382211</v>
       </c>
       <c r="OW2" t="n">
-        <v>62242.23276989424</v>
+        <v>62242.23334043666</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.903862694492315</v>
+        <v>0.9038627006757571</v>
       </c>
       <c r="OY2" t="n">
-        <v>297296.0976265251</v>
+        <v>297296.0980249718</v>
       </c>
       <c r="OZ2" t="n">
-        <v>366158.584317443</v>
+        <v>366158.5848760193</v>
       </c>
       <c r="PA2" t="n">
-        <v>3802.898799158979</v>
+        <v>3802.898798856355</v>
       </c>
       <c r="PB2" t="n">
-        <v>-546798.7206146495</v>
+        <v>-546798.7221055916</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.0862823337743</v>
+        <v>716.0862823442422</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.547869996411</v>
+        <v>1004.547870011968</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402830768832102</v>
+        <v>1.402830768833321</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9992882291432338</v>
+        <v>0.9992882291440874</v>
       </c>
       <c r="PG2" t="n">
-        <v>310.6988848853673</v>
+        <v>310.6988852468813</v>
       </c>
       <c r="PH2" t="n">
-        <v>87253.29792837038</v>
+        <v>87253.29872832884</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.146088484610563e-05</v>
+        <v>1.146088474102958e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62198.02122034385</v>
+        <v>62198.02179053571</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.607768190015855e-05</v>
+        <v>1.60776817527686e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004178679781970189</v>
+        <v>0.004178679772290089</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.551232156181815e-05</v>
+        <v>1.551232159134245e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02176262158035559</v>
+        <v>0.02176262162506897</v>
       </c>
       <c r="PO2" t="n">
-        <v>62242.23276989424</v>
+        <v>62242.23334043666</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.903862694492315</v>
+        <v>0.9038627006757571</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.903862694492315</v>
+        <v>0.9038627006757571</v>
       </c>
       <c r="PR2" t="n">
-        <v>297296.0976265251</v>
+        <v>297296.0980249718</v>
       </c>
       <c r="PS2" t="n">
-        <v>366158.584317443</v>
+        <v>366158.5848760193</v>
       </c>
       <c r="PT2" t="n">
-        <v>3802.898799158979</v>
+        <v>3802.898798856355</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.0862823337743</v>
+        <v>716.0862823442422</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.547869996411</v>
+        <v>1004.547870011968</v>
       </c>
       <c r="PW2" t="n">
-        <v>310.6988848853673</v>
+        <v>310.6988852468813</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9992882291432338</v>
+        <v>0.9992882291440874</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.551232156181815e-05</v>
+        <v>1.551232159134245e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02176262158035559</v>
+        <v>0.02176262162506897</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>268.330454239032</v>
+        <v>268.3304541960487</v>
       </c>
       <c r="QD2" t="n">
-        <v>91803.71116479278</v>
+        <v>91803.71120994323</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.192604568701754</v>
+        <v>1.192604569480335</v>
       </c>
       <c r="QF2" t="n">
-        <v>317489.8994376006</v>
+        <v>317489.8994066514</v>
       </c>
       <c r="QG2" t="n">
-        <v>394467.393549273</v>
+        <v>394467.3935059285</v>
       </c>
       <c r="QH2" t="n">
-        <v>3802.898799153154</v>
+        <v>3802.898798850531</v>
       </c>
       <c r="QI2" t="n">
-        <v>-625966.1686525623</v>
+        <v>-625966.1684512424</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.7766612271739</v>
+        <v>716.7766612261418</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.423563379155</v>
+        <v>1005.423563379519</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402701312369457</v>
+        <v>1.402701312371985</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9993959226408498</v>
+        <v>0.9993959226400123</v>
       </c>
       <c r="QN2" t="n">
-        <v>328.498879078229</v>
+        <v>328.4988790519395</v>
       </c>
       <c r="QO2" t="n">
-        <v>128695.7640819929</v>
+        <v>128695.764145412</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.770263513590807e-06</v>
+        <v>7.770263509761756e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>91748.51620021569</v>
+        <v>91748.51624526241</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.089935882797033e-05</v>
+        <v>1.089935882261896e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003739359131507946</v>
+        <v>0.003739359132119119</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.697466410145767e-05</v>
+        <v>1.697466409929568e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02398721462474748</v>
+        <v>0.02398721462145486</v>
       </c>
       <c r="QV2" t="n">
-        <v>91803.71116479278</v>
+        <v>91803.71120994323</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.192604568701754</v>
+        <v>1.192604569480335</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.192604568701754</v>
+        <v>1.192604569480335</v>
       </c>
       <c r="QY2" t="n">
-        <v>317489.8994376006</v>
+        <v>317489.8994066514</v>
       </c>
       <c r="QZ2" t="n">
-        <v>394467.393549273</v>
+        <v>394467.3935059285</v>
       </c>
       <c r="RA2" t="n">
-        <v>3802.898799153154</v>
+        <v>3802.898798850531</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.7766612271739</v>
+        <v>716.7766612261418</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.423563379155</v>
+        <v>1005.423563379519</v>
       </c>
       <c r="RD2" t="n">
-        <v>328.498879078229</v>
+        <v>328.4988790519395</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9993959226408498</v>
+        <v>0.9993959226400123</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.697466410145767e-05</v>
+        <v>1.697466409929568e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02398721462474748</v>
+        <v>0.02398721462145486</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02454735574306526</v>
+        <v>0.02454735583421374</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.002565106083968951</v>
+        <v>0.002565106112389446</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.0118819684827071</v>
+        <v>0.01188196847908258</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.03211970590363773</v>
+        <v>0.03211970593558001</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04296617880409803</v>
+        <v>0.04296617885630432</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1140803150174771</v>
+        <v>0.1140803152175701</v>
       </c>
       <c r="RP2" t="n">
-        <v>1.63177896510408e-05</v>
+        <v>1.631775066322783e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5487096758553796</v>
+        <v>0.5487096623772446</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9607737094417538</v>
+        <v>0.9607736932031694</v>
       </c>
       <c r="RS2" t="n">
-        <v>399127.3344682321</v>
+        <v>399127.3325649163</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.75030435418316</v>
+        <v>2.750304352741923</v>
       </c>
       <c r="RU2" t="n">
-        <v>380804.8195840591</v>
+        <v>380804.8195409087</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>2666.336737642821</v>
+        <v>2666.336733476433</v>
       </c>
       <c r="RX2" t="n">
-        <v>6.130850095279577</v>
+        <v>6.130850045051965</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.008898206638289679</v>
+        <v>0.008898206610277404</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.0006976905972785009</v>
+        <v>0.0006976905877162687</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.01162806041521075</v>
+        <v>0.01162806040638431</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01540785179719492</v>
+        <v>0.01540785180594971</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004323184445159584</v>
+        <v>0.00432318445060152</v>
       </c>
     </row>
     <row r="3">
@@ -10206,34 +10206,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595100147163165</v>
+        <v>0.01595100143763145</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793991196041439e-07</v>
+        <v>-1.793991206403526e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379123038051363</v>
+        <v>0.01379123037932427</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518399105034646</v>
+        <v>0.0251839910654654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492604350337213</v>
+        <v>0.05492604348330049</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.550945565893414e-13</v>
+        <v>2.267256521415462e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172518788</v>
+        <v>81.75758170045903</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172518788</v>
+        <v>81.75758170045903</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172518788</v>
+        <v>81.75758170045903</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172518788</v>
+        <v>81.75758170045903</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180724874</v>
+        <v>292.2676180746038</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394374874</v>
+        <v>132637.8394408441</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096100384</v>
+        <v>1.581790096128938</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834750828</v>
+        <v>334589.2834765968</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800038144</v>
+        <v>418442.2800059367</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723464</v>
+        <v>3782.917347723465</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.962580414</v>
+        <v>-687181.962586298</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.709071370401</v>
+        <v>717.7090713704969</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103392</v>
+        <v>1006.643209103503</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574213</v>
+        <v>1.40257835557418</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756393</v>
+        <v>0.9994973723756541</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121221834</v>
+        <v>342.858412123426</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165867006</v>
+        <v>185942.4165914048</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054398427e-06</v>
+        <v>5.378009054262366e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565723739</v>
+        <v>132571.856575731</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095781374e-06</v>
+        <v>7.543079095590362e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038600107</v>
+        <v>0.003434455038575276</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856046624e-05</v>
+        <v>1.816725856056981e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190127282</v>
+        <v>0.02581791190143234</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394374874</v>
+        <v>132637.8394408441</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096100384</v>
+        <v>1.581790096128938</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096100384</v>
+        <v>1.581790096128938</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834750828</v>
+        <v>334589.2834765968</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800038144</v>
+        <v>418442.2800059367</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723464</v>
+        <v>3782.917347723465</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.709071370401</v>
+        <v>717.7090713704969</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103392</v>
+        <v>1006.643209103503</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121221834</v>
+        <v>342.858412123426</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756393</v>
+        <v>0.9994973723756541</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856046624e-05</v>
+        <v>1.816725856056981e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190127282</v>
+        <v>0.02581791190143234</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10355,97 +10355,97 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BD3" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368990486</v>
+        <v>-696445.9368984915</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BG3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087309081e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.249809346996765e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BW3" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BY3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
@@ -10456,97 +10456,97 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CK3" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368990486</v>
+        <v>-696445.9368984915</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="CN3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087309081e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.249809346996765e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="DD3" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="DF3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="DK3" t="inlineStr">
         <is>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305854178</v>
+        <v>0.2384587305124281</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305854178</v>
+        <v>0.2384587305124281</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323214654</v>
+        <v>186219.5322674403</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934740289</v>
+        <v>2.77636993395065</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.378076632043</v>
+        <v>309.3780849844848</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136412409405</v>
+        <v>126.4136446537957</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727777402578</v>
+        <v>282.3727853636234</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.378076632043</v>
+        <v>309.3780849844848</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136412409405</v>
+        <v>126.4136446537957</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727777402578</v>
+        <v>282.3727853636234</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365050000844</v>
+        <v>247.8365024192123</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23792356564</v>
+        <v>72726.23517629073</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014671369339</v>
+        <v>1.02301464338595</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9118131719</v>
+        <v>302836.9099697904</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0339384188</v>
+        <v>373927.0313541561</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061322123</v>
+        <v>3790.093061730485</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3840047268</v>
+        <v>-565396.3769084511</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430572487</v>
+        <v>716.2529430014446</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581204951</v>
+        <v>1004.831581129399</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457087039</v>
+        <v>1.402900457090858</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859006309</v>
+        <v>0.9992812858925256</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.691115588791</v>
+        <v>315.6911139428975</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5428739003</v>
+        <v>101954.5390219467</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292713712847e-06</v>
+        <v>9.808293084280833e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11052498844</v>
+        <v>72674.10777908363</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005833131123e-05</v>
+        <v>1.376005885121868e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.00404855944407987</v>
+        <v>0.004048559486134561</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113117015689e-05</v>
+        <v>1.592113103528774e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288374022412</v>
+        <v>0.02238288353545815</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23792356564</v>
+        <v>72726.23517629073</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014671369339</v>
+        <v>1.02301464338595</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014671369339</v>
+        <v>1.02301464338595</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9118131719</v>
+        <v>302836.9099697904</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0339384188</v>
+        <v>373927.0313541561</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061322123</v>
+        <v>3790.093061730485</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430572487</v>
+        <v>716.2529430014446</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581204951</v>
+        <v>1004.831581129399</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.691115588791</v>
+        <v>315.6911139428975</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859006309</v>
+        <v>0.9992812858925256</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113117015689e-05</v>
+        <v>1.592113103528774e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288374022412</v>
+        <v>0.02238288353545815</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968650441</v>
+        <v>295.5920968646</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4165582095</v>
+        <v>134591.416366647</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527252264</v>
+        <v>1.586979524994881</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325125</v>
+        <v>336974.6309325848</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061331771</v>
+        <v>3790.093061740134</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242240225</v>
+        <v>-698537.1243430478</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580608235</v>
+        <v>717.8543580603247</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618720724</v>
+        <v>1006.76561871758</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008975291</v>
+        <v>1.402465008971884</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.999532664823407</v>
+        <v>0.9995326648240592</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163636162</v>
+        <v>344.8011163631608</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.520264821</v>
+        <v>188672.5199959473</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188912494511e-06</v>
+        <v>5.300188920047711e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175258435</v>
+        <v>134529.2173344553</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329490732352e-06</v>
+        <v>7.433329501307392e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843599699</v>
+        <v>0.00339557384358706</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665247584e-05</v>
+        <v>1.832907665242668e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184419893</v>
+        <v>0.0260669518441044</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4165582095</v>
+        <v>134591.416366647</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527252264</v>
+        <v>1.586979524994881</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527252264</v>
+        <v>1.586979524994881</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325125</v>
+        <v>336974.6309325848</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061331771</v>
+        <v>3790.093061740134</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580608235</v>
+        <v>717.8543580603247</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618720724</v>
+        <v>1006.76561871758</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163636162</v>
+        <v>344.8011163631608</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.999532664823407</v>
+        <v>0.9995326648240592</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665247584e-05</v>
+        <v>1.832907665242668e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184419893</v>
+        <v>0.0260669518441044</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968650441</v>
+        <v>295.5920968646</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4165582095</v>
+        <v>134591.416366647</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527252264</v>
+        <v>1.586979524994881</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325125</v>
+        <v>336974.6309325848</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061331771</v>
+        <v>3790.093061740134</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242240225</v>
+        <v>-698537.1243430478</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580608235</v>
+        <v>717.8543580603247</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618720724</v>
+        <v>1006.76561871758</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008975291</v>
+        <v>1.402465008971884</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.999532664823407</v>
+        <v>0.9995326648240592</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163636162</v>
+        <v>344.8011163631608</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.520264821</v>
+        <v>188672.5199959473</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188912494511e-06</v>
+        <v>5.300188920047711e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175258435</v>
+        <v>134529.2173344553</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329490732352e-06</v>
+        <v>7.433329501307392e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843599699</v>
+        <v>0.00339557384358706</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665247584e-05</v>
+        <v>1.832907665242668e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184419893</v>
+        <v>0.0260669518441044</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4165582095</v>
+        <v>134591.416366647</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527252264</v>
+        <v>1.586979524994881</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527252264</v>
+        <v>1.586979524994881</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325125</v>
+        <v>336974.6309325848</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061331771</v>
+        <v>3790.093061740134</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580608235</v>
+        <v>717.8543580603247</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618720724</v>
+        <v>1006.76561871758</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163636162</v>
+        <v>344.8011163631608</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.999532664823407</v>
+        <v>0.9995326648240592</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665247584e-05</v>
+        <v>1.832907665242668e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184419893</v>
+        <v>0.0260669518441044</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,205 +10902,205 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.0161933732641977</v>
+        <v>0.01619337328856004</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.97200577473907e-07</v>
+        <v>-1.97200581258226e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868035</v>
+        <v>0.0137972782786746</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318158</v>
+        <v>0.02510093007331918</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138441548216</v>
+        <v>0.05509138443997257</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578243803497362e-06</v>
+        <v>5.578993742677563e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.980002481397129</v>
+        <v>0.980002512964129</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.980002481397129</v>
+        <v>0.980002512964129</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1642230607</v>
+        <v>520038.168443041</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991776272</v>
+        <v>2.77636299078698</v>
       </c>
       <c r="IG3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="IH3" t="n">
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>1485.077870845154</v>
+        <v>1485.077890980407</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.006324918181887825</v>
+        <v>0.006324918330345255</v>
       </c>
       <c r="IL3" t="n">
-        <v>-7.113564345266464e-08</v>
+        <v>-7.113564568485636e-08</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.009985998883526082</v>
+        <v>0.009985999145196338</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.00546852208241892</v>
+        <v>0.005468522221959931</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02459644695381097</v>
+        <v>0.02459644753390269</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002168220897516761</v>
+        <v>0.002168221164867841</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.0118866813152243</v>
+        <v>0.01188668127090233</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03204646801175858</v>
+        <v>0.03204646832407327</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04267186608723059</v>
+        <v>0.04267186623379524</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1133696832655412</v>
+        <v>0.1133696845275414</v>
       </c>
       <c r="IV3" t="n">
-        <v>3.66892766168192e-11</v>
+        <v>1.717074260554341e-10</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>272.2090735478523</v>
+        <v>272.2090728976457</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.9871314095953</v>
+        <v>111.9871313091267</v>
       </c>
       <c r="IZ3" t="n">
-        <v>248.1061509121249</v>
+        <v>248.1061502441006</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.70711543785504</v>
+        <v>65.70711539928303</v>
       </c>
       <c r="JB3" t="n">
-        <v>139.2747151535616</v>
+        <v>139.2747146756172</v>
       </c>
       <c r="JC3" t="n">
-        <v>111.9871314095953</v>
+        <v>111.9871313091267</v>
       </c>
       <c r="JD3" t="n">
-        <v>82.80295091212494</v>
+        <v>82.80295024410057</v>
       </c>
       <c r="JE3" t="n">
-        <v>36.47911084110655</v>
+        <v>36.47911064470668</v>
       </c>
       <c r="JF3" t="n">
-        <v>258.6294204834264</v>
+        <v>258.6294206602383</v>
       </c>
       <c r="JG3" t="n">
-        <v>84817.68659554048</v>
+        <v>84817.68677064481</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.143266862624555</v>
+        <v>1.143266864202087</v>
       </c>
       <c r="JI3" t="n">
-        <v>310546.662525462</v>
+        <v>310546.6626518629</v>
       </c>
       <c r="JJ3" t="n">
-        <v>384735.5412276993</v>
+        <v>384735.5414048923</v>
       </c>
       <c r="JK3" t="n">
-        <v>3788.663779690919</v>
+        <v>3788.663779783839</v>
       </c>
       <c r="JL3" t="n">
-        <v>-595124.3765203111</v>
+        <v>-595124.3770370308</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.5121736279161</v>
+        <v>716.5121736324852</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.172733108797</v>
+        <v>1005.172733114069</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402869023172775</v>
+        <v>1.402869023171188</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993201636386749</v>
+        <v>0.9993201636396569</v>
       </c>
       <c r="JQ3" t="n">
-        <v>322.5008365450184</v>
+        <v>322.5008366553929</v>
       </c>
       <c r="JR3" t="n">
-        <v>118907.5160059032</v>
+        <v>118907.5162513686</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.409897318436576e-06</v>
+        <v>8.409897301075705e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>84760.24065096115</v>
+        <v>84760.24082603089</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.179798443609846e-05</v>
+        <v>1.179798441173008e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003880006726474641</v>
+        <v>0.00388000672382297</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.648045579038536e-05</v>
+        <v>1.648045579946758e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02323360408130492</v>
+        <v>0.02323360409513912</v>
       </c>
       <c r="JY3" t="n">
-        <v>84817.68659554048</v>
+        <v>84817.68677064481</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.143266862624555</v>
+        <v>1.143266864202087</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.143266862624555</v>
+        <v>1.143266864202087</v>
       </c>
       <c r="KB3" t="n">
-        <v>310546.662525462</v>
+        <v>310546.6626518629</v>
       </c>
       <c r="KC3" t="n">
-        <v>384735.5412276993</v>
+        <v>384735.5414048923</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.663779690919</v>
+        <v>3788.663779783839</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.5121736279161</v>
+        <v>716.5121736324852</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.172733108797</v>
+        <v>1005.172733114069</v>
       </c>
       <c r="KG3" t="n">
-        <v>322.5008365450184</v>
+        <v>322.5008366553929</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993201636386749</v>
+        <v>0.9993201636396569</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.648045579038536e-05</v>
+        <v>1.648045579946758e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02323360408130492</v>
+        <v>0.02323360409513912</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5936554165519</v>
+        <v>295.5936554164505</v>
       </c>
       <c r="KN3" t="n">
-        <v>135263.5641285908</v>
+        <v>135263.5640847849</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.59490012156201</v>
+        <v>1.594900121045802</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.3779072554</v>
+        <v>336974.3779072717</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KR3" t="n">
-        <v>3788.663779696122</v>
+        <v>3788.66377978904</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698120.5446960767</v>
+        <v>-698120.5447231588</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8561088314344</v>
+        <v>717.8561088313205</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.77665476311</v>
+        <v>1006.776654762391</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402476962133813</v>
+        <v>1.402476962133034</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995303767050462</v>
+        <v>0.9995303767051953</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8027143551446</v>
+        <v>344.8027143550406</v>
       </c>
       <c r="KY3" t="n">
-        <v>189615.9399247399</v>
+        <v>189615.9398632539</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.273818226447145e-06</v>
+        <v>5.273818228157264e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>135200.751986861</v>
+        <v>135200.7519430951</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.396408565073526e-06</v>
+        <v>7.396408567467817e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395618189367001</v>
+        <v>0.003395618189364108</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832924920426861e-05</v>
+        <v>1.832924920425737e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606728356295834</v>
+        <v>0.02606728356293673</v>
       </c>
       <c r="LF3" t="n">
-        <v>135263.5641285908</v>
+        <v>135263.5640847849</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.59490012156201</v>
+        <v>1.594900121045802</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.59490012156201</v>
+        <v>1.594900121045802</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.3779072554</v>
+        <v>336974.3779072717</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="LK3" t="n">
-        <v>3788.663779696122</v>
+        <v>3788.66377978904</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8561088314344</v>
+        <v>717.8561088313205</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.77665476311</v>
+        <v>1006.776654762391</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8027143551446</v>
+        <v>344.8027143550406</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995303767050462</v>
+        <v>0.9995303767051953</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832924920426861e-05</v>
+        <v>1.832924920425737e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606728356295834</v>
+        <v>0.02606728356293673</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>268.3105684723027</v>
+        <v>268.3105685824258</v>
       </c>
       <c r="LU3" t="n">
-        <v>96432.56307951662</v>
+        <v>96432.56318663126</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.252868274796313</v>
+        <v>1.2528682756728</v>
       </c>
       <c r="LW3" t="n">
-        <v>317464.8294967421</v>
+        <v>317464.8295755199</v>
       </c>
       <c r="LX3" t="n">
-        <v>394434.2643682526</v>
+        <v>394434.2644786795</v>
       </c>
       <c r="LY3" t="n">
-        <v>3788.66377969757</v>
+        <v>3788.663779790488</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-622104.2681128252</v>
+        <v>-622104.2684445487</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.7910622965964</v>
+        <v>716.7910622999417</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.518949161192</v>
+        <v>1005.518949164764</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402806203999687</v>
+        <v>1.402806203998124</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993653520370277</v>
+        <v>0.9993653520377845</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.4889879126976</v>
+        <v>328.4889879801752</v>
       </c>
       <c r="MF3" t="n">
-        <v>135190.7702103218</v>
+        <v>135190.7703604404</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.39695467704089e-06</v>
+        <v>7.39695466882716e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>96371.66546944637</v>
+        <v>96371.66557656687</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.037649391165746e-05</v>
+        <v>1.037649390012362e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.0037402747063018</v>
+        <v>0.003740274704765298</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.697436497318127e-05</v>
+        <v>1.697436497875419e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02398732772692185</v>
+        <v>0.0239873277354361</v>
       </c>
       <c r="MM3" t="n">
-        <v>96432.56307951662</v>
+        <v>96432.56318663126</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.252868274796313</v>
+        <v>1.2528682756728</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.252868274796313</v>
+        <v>1.2528682756728</v>
       </c>
       <c r="MP3" t="n">
-        <v>317464.8294967421</v>
+        <v>317464.8295755199</v>
       </c>
       <c r="MQ3" t="n">
-        <v>394434.2643682526</v>
+        <v>394434.2644786795</v>
       </c>
       <c r="MR3" t="n">
-        <v>3788.66377969757</v>
+        <v>3788.663779790488</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.7910622965964</v>
+        <v>716.7910622999417</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.518949161192</v>
+        <v>1005.518949164764</v>
       </c>
       <c r="MU3" t="n">
-        <v>328.4889879126976</v>
+        <v>328.4889879801752</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993653520370277</v>
+        <v>0.9993653520377845</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.697436497318127e-05</v>
+        <v>1.697436497875419e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02398732772692185</v>
+        <v>0.0239873277354361</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8440569533525977</v>
+        <v>0.8440569510475835</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4318584616574167</v>
+        <v>0.4318584600276206</v>
       </c>
       <c r="NC3" t="n">
-        <v>251782.2368098007</v>
+        <v>251782.2361544338</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.748629349547309</v>
+        <v>2.748629350874079</v>
       </c>
       <c r="NE3" t="n">
-        <v>380771.6904030322</v>
+        <v>380771.6905136596</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>165.5221939215142</v>
+        <v>165.5222151890844</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.8272882109763</v>
+        <v>139.8272999196165</v>
       </c>
       <c r="NI3" t="n">
-        <v>-88.57723269642099</v>
+        <v>-88.5772539554662</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-32.35327763552032</v>
+        <v>-32.35328168312258</v>
       </c>
       <c r="NK3" t="n">
-        <v>289.8395153090023</v>
+        <v>289.8395395791333</v>
       </c>
       <c r="NL3" t="n">
-        <v>139.8272882109763</v>
+        <v>139.8272999196165</v>
       </c>
       <c r="NM3" t="n">
-        <v>-253.880432696421</v>
+        <v>-253.8804539554662</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO3" t="n">
-        <v>226.3584234131515</v>
+        <v>226.3584164964687</v>
       </c>
       <c r="NP3" t="n">
-        <v>50679.21590584988</v>
+        <v>50679.21016896302</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7805498152781198</v>
+        <v>0.7805497507776112</v>
       </c>
       <c r="NR3" t="n">
-        <v>287503.2052217476</v>
+        <v>287503.2002826625</v>
       </c>
       <c r="NS3" t="n">
-        <v>352430.792050773</v>
+        <v>352430.7851271578</v>
       </c>
       <c r="NT3" t="n">
-        <v>3802.968979276965</v>
+        <v>3802.968981159765</v>
       </c>
       <c r="NU3" t="n">
-        <v>-508403.2703874827</v>
+        <v>-508403.2514333556</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8708609744396</v>
+        <v>715.8708608804645</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.244466107498</v>
+        <v>1004.24446596106</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402829086716179</v>
+        <v>1.402829086695775</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.999255094776072</v>
+        <v>0.9992550947671254</v>
       </c>
       <c r="NZ3" t="n">
-        <v>301.686173410357</v>
+        <v>301.686168796215</v>
       </c>
       <c r="OA3" t="n">
-        <v>71041.38802564405</v>
+        <v>71041.37998207335</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.407630154465769e-05</v>
+        <v>1.407630313842919e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>50641.51342337912</v>
+        <v>50641.50769029484</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.974664524023369e-05</v>
+        <v>1.974664747573549e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004431251482316858</v>
+        <v>0.004431251617356759</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.477914110903165e-05</v>
+        <v>1.477914073495645e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02065511741766706</v>
+        <v>0.02065511685388293</v>
       </c>
       <c r="OH3" t="n">
-        <v>50679.21590584988</v>
+        <v>50679.21016896302</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7805498152781198</v>
+        <v>0.7805497507776112</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7805498152781198</v>
+        <v>0.7805497507776112</v>
       </c>
       <c r="OK3" t="n">
-        <v>287503.2052217476</v>
+        <v>287503.2002826625</v>
       </c>
       <c r="OL3" t="n">
-        <v>352430.792050773</v>
+        <v>352430.7851271578</v>
       </c>
       <c r="OM3" t="n">
-        <v>3802.968979276965</v>
+        <v>3802.968981159765</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8708609744396</v>
+        <v>715.8708608804645</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.244466107498</v>
+        <v>1004.24446596106</v>
       </c>
       <c r="OP3" t="n">
-        <v>301.686173410357</v>
+        <v>301.686168796215</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.999255094776072</v>
+        <v>0.9992550947671254</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.477914110903165e-05</v>
+        <v>1.477914073495645e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02065511741766706</v>
+        <v>0.02065511685388293</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>240.0397804836098</v>
+        <v>240.039777083289</v>
       </c>
       <c r="OW3" t="n">
-        <v>62200.81012170296</v>
+        <v>62200.80663875205</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.9033702396256058</v>
+        <v>0.9033702018425884</v>
       </c>
       <c r="OY3" t="n">
-        <v>297275.4181003142</v>
+        <v>297275.415672469</v>
       </c>
       <c r="OZ3" t="n">
-        <v>366129.5903912694</v>
+        <v>366129.5869877085</v>
       </c>
       <c r="PA3" t="n">
-        <v>3802.968979272023</v>
+        <v>3802.968981154822</v>
       </c>
       <c r="PB3" t="n">
-        <v>-546734.2485791647</v>
+        <v>-546734.2395033578</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.0856861190407</v>
+        <v>716.0856860552582</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.546741549884</v>
+        <v>1004.546741454909</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402830360978462</v>
+        <v>1.402830360970783</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9992883192004793</v>
+        <v>0.9992883191953814</v>
       </c>
       <c r="PG3" t="n">
-        <v>310.6800961011273</v>
+        <v>310.6800938981743</v>
       </c>
       <c r="PH3" t="n">
-        <v>87195.2125827593</v>
+        <v>87195.2076993045</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.146851954802993e-05</v>
+        <v>1.146852019033583e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62156.63348057379</v>
+        <v>62156.62999976982</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.608838741745137e-05</v>
+        <v>1.608838831840953e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004179180521716613</v>
+        <v>0.004179180580713136</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.551078494264218e-05</v>
+        <v>1.551078476273137e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02176029259251847</v>
+        <v>0.02176029232005218</v>
       </c>
       <c r="PO3" t="n">
-        <v>62200.81012170296</v>
+        <v>62200.80663875205</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.9033702396256058</v>
+        <v>0.9033702018425884</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9033702396256058</v>
+        <v>0.9033702018425884</v>
       </c>
       <c r="PR3" t="n">
-        <v>297275.4181003142</v>
+        <v>297275.415672469</v>
       </c>
       <c r="PS3" t="n">
-        <v>366129.5903912694</v>
+        <v>366129.5869877085</v>
       </c>
       <c r="PT3" t="n">
-        <v>3802.968979272023</v>
+        <v>3802.968981154822</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.0856861190407</v>
+        <v>716.0856860552582</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.546741549884</v>
+        <v>1004.546741454909</v>
       </c>
       <c r="PW3" t="n">
-        <v>310.6800961011273</v>
+        <v>310.6800938981743</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9992883192004793</v>
+        <v>0.9992883191953814</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.551078494264218e-05</v>
+        <v>1.551078476273137e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02176029259251847</v>
+        <v>0.02176029232005218</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>268.2973288867514</v>
+        <v>268.2973289952611</v>
       </c>
       <c r="QD3" t="n">
-        <v>91741.7611372922</v>
+        <v>91741.76066681088</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.191946947160785</v>
+        <v>1.19194694056072</v>
       </c>
       <c r="QF3" t="n">
-        <v>317466.2740094358</v>
+        <v>317466.2740883976</v>
       </c>
       <c r="QG3" t="n">
-        <v>394434.2643682524</v>
+        <v>394434.2644786858</v>
       </c>
       <c r="QH3" t="n">
-        <v>3802.968979266313</v>
+        <v>3802.968981149112</v>
       </c>
       <c r="QI3" t="n">
-        <v>-625892.1546080749</v>
+        <v>-625892.1554154506</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.7755537927222</v>
+        <v>716.7755537941744</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.421845614038</v>
+        <v>1005.421845605749</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402701083057287</v>
+        <v>1.402701083042881</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9993959110412035</v>
+        <v>0.9993959110456542</v>
       </c>
       <c r="QN3" t="n">
-        <v>328.4785706730663</v>
+        <v>328.478570739262</v>
       </c>
       <c r="QO3" t="n">
-        <v>128608.895994235</v>
+        <v>128608.8953339351</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.775511890288103e-06</v>
+        <v>7.7755119302089e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>91686.60204775968</v>
+        <v>91686.60157796674</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.090671894983193e-05</v>
+        <v>1.090671900571687e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003739816907620935</v>
+        <v>0.003739816906028709</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.697298318940842e-05</v>
+        <v>1.697298319481236e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02398464274807128</v>
+        <v>0.02398464275625716</v>
       </c>
       <c r="QV3" t="n">
-        <v>91741.7611372922</v>
+        <v>91741.76066681088</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.191946947160785</v>
+        <v>1.19194694056072</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.191946947160785</v>
+        <v>1.19194694056072</v>
       </c>
       <c r="QY3" t="n">
-        <v>317466.2740094358</v>
+        <v>317466.2740883976</v>
       </c>
       <c r="QZ3" t="n">
-        <v>394434.2643682524</v>
+        <v>394434.2644786858</v>
       </c>
       <c r="RA3" t="n">
-        <v>3802.968979266313</v>
+        <v>3802.968981149112</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.7755537927222</v>
+        <v>716.7755537941744</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.421845614038</v>
+        <v>1005.421845605749</v>
       </c>
       <c r="RD3" t="n">
-        <v>328.4785706730663</v>
+        <v>328.478570739262</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9993959110412035</v>
+        <v>0.9993959110456542</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.697298318940842e-05</v>
+        <v>1.697298319481236e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02398464274807128</v>
+        <v>0.02398464275625716</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.02457225869962622</v>
+        <v>0.02457225827862444</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.002612288234915592</v>
+        <v>0.002612288260096239</v>
       </c>
       <c r="RL3" t="n">
-        <v>0.01187896609825505</v>
+        <v>0.01187896610734416</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.03214632319167609</v>
+        <v>0.03214632311172337</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04300932499281469</v>
+        <v>0.04300932486190079</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1142191612172876</v>
+        <v>0.114219160619689</v>
       </c>
       <c r="RP3" t="n">
-        <v>1.637668679227433e-05</v>
+        <v>1.637669955847909e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5486568776102611</v>
+        <v>0.5486569564973739</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.960731849367055</v>
+        <v>0.9607319445092494</v>
       </c>
       <c r="RS3" t="n">
-        <v>398917.8187566312</v>
+        <v>398917.8292931489</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.74861013933219</v>
+        <v>2.748610142360411</v>
       </c>
       <c r="RU3" t="n">
-        <v>380771.6904030322</v>
+        <v>380771.6905136596</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>2819.854615610326</v>
+        <v>2819.854626396089</v>
       </c>
       <c r="RX3" t="n">
-        <v>6.469776307177327</v>
+        <v>6.469776749093946</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.008972184742318779</v>
+        <v>0.008972184993155434</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.0007909141711080536</v>
+        <v>0.0007909142720897038</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.01168977096083212</v>
+        <v>0.01168977112587362</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01556565737128956</v>
+        <v>0.01556565749281786</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004335971814690777</v>
+        <v>0.004335971817483422</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091082200144867</v>
+        <v>0.4091082217996072</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4293639122109717</v>
+        <v>0.4293639002009089</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
   </sheetData>
@@ -12543,16 +12859,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H2" t="n">
-        <v>4.29206558309335e-08</v>
+        <v>4.328150907075785e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12574,16 +12890,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H3" t="n">
-        <v>6.190936407187162e-08</v>
+        <v>1.46559569716587e-07</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
